--- a/server/train/data/postprocdata.xlsx
+++ b/server/train/data/postprocdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C290"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,18 +469,18 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 488
-отделение 12 площадь за день 26 площадь с начала операции 221
+по пу день 26 от начала 488
+отделение 12 день 26 от начала 221
 предпосевная культура под озимая пшеница
-по пу площадь за день 215 площадь с начала операции 1015
-отделение 12 площадь за день 128 площадь с начала операции 317
-отделение 16 площадь за день 123 площадь с начала операции 529
+по пу день 215 от начала 1015
+отделение 12 день 128 от начала 317
+отделение 16 день 123 от начала 529
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 22 площадь с начала операции 627
-отделение 11 площадь за день 22 площадь с начала операции 217
+по пу день 22 от начала 627
+отделение 11 день 22 от начала 217
 второе дискование сои под озимая пшеница
-по пу площадь за день 45 площадь с начала операции 1907
-отделение 12 площадь за день 45 площадь с начала операции 299</t>
+по пу день 45 от начала 1907
+отделение 12 день 45 от начала 299</t>
         </is>
       </c>
     </row>
@@ -513,23 +513,23 @@
       <c r="C3" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 514
-отделение 12 площадь за день 26 площадь с начала операции 247
+по пу день 26 от начала 514
+отделение 12 день 26 от начала 247
 пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1351
-отделение 16 площадь за день 13 площадь с начала операции 731
+по пу день 13 от начала 1351
+отделение 16 день 13 от начала 731
 предпосевная культура под озимая пшеница
-по пу площадь за день 56 площадь с начала операции 1071
-отделение 16 площадь за день 56 площадь с начала операции 585
+по пу день 56 от начала 1071
+отделение 16 день 56 от начала 585
 дискование сахарная свекла
-по пу площадь за день 85 площадь с начала операции 870
-отделение 17 площадь за день 85 площадь с начала операции 168
+по пу день 85 от начала 870
+отделение 17 день 85 от начала 168
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 123 площадь с начала операции 750
-отделение 12 площадь за день 123 площадь с начала операции 450
+по пу день 123 от начала 750
+отделение 12 день 123 от начала 450
 второе дискование сои под озимая пшеница
-по пу площадь за день 82 площадь с начала операции 1989
-отделение 11 площадь за день 82 площадь с начала операции 993</t>
+по пу день 82 от начала 1989
+отделение 11 день 82 от начала 993</t>
         </is>
       </c>
     </row>
@@ -556,17 +556,17 @@
       <c r="C4" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 29 площадь с начала операции 1367
-отделение 16 площадь за день 29 площадь с начала операции 760
+по пу день 29 от начала 1367
+отделение 16 день 29 от начала 760
 предпосевная культура под озимая пшеница
-по пу площадь за день 146 площадь с начала операции 1217
-отделение 11 площадь за день 146 площадь с начала операции 233
+по пу день 146 от начала 1217
+отделение 11 день 146 от начала 233
 дискование сахарная свекла
-по пу площадь за день 64 площадь с начала операции 934
-отделение 17 площадь за день 64 площадь с начала операции 232
+по пу день 64 от начала 934
+отделение 17 день 64 от начала 232
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 25 площадь с начала операции 775
-отделение 12 площадь за день 25 площадь с начала операции 475</t>
+по пу день 25 от начала 775
+отделение 12 день 25 от начала 475</t>
         </is>
       </c>
     </row>
@@ -584,8 +584,8 @@
       <c r="C5" t="inlineStr">
         <is>
           <t>12.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 149 площадь с начала операции 7264
-отделение 17-площадь за день 149 площадь с начала операции 1443</t>
+внесение минеральные удобрений под озимая пшеницу 2025 г пу юг день 149 от начала 7264
+отделение 17 день 149 от начала 1443</t>
         </is>
       </c>
     </row>
@@ -618,23 +618,23 @@
       <c r="C6" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 15 площадь с начала операции 1382
-отделение 16 площадь за день 15 площадь с начала операции 775
+по пу день 15 от начала 1382
+отделение 16 день 15 от начала 775
 пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 527
-отделение 12 площадь за день 13 площадь с начала операции 260
+по пу день 13 от начала 527
+отделение 12 день 13 от начала 260
 второе дискование сои под пшеница
-по пу площадь за день 87 площадь с начала операции 2076
-отделение 12 площадь за день 87 площадь с начала операции 386
+по пу день 87 от начала 2076
+отделение 12 день 87 от начала 386
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 149 площадь с начала операции 899
-отделение 17 площадь за день 149 площадь с начала операции 232
-3-е дискование подсол под пшеница
-по пу площадь за день 47 площадь с начала операции 949
-отделение 11 площадь за день 47 площадь с начала операции 47
+по пу день 149 от начала 899
+отделение 17 день 149 от начала 232
+3 е дискование подсол под пшеница
+по пу день 47 от начала 949
+отделение 11 день 47 от начала 47
 предпосевная культура под озимая пшеница
-по пу площадь за день 95 площадь с начала операции 1312
-отделение 11 площадь за день 95 площадь с начала операции 328</t>
+по пу день 95 от начала 1312
+отделение 11 день 95 от начала 328</t>
         </is>
       </c>
     </row>
@@ -659,15 +659,15 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 540
-отделение 12 площадь за день 13 площадь с начала операции 273
+по пу день 13 от начала 540
+отделение 12 день 13 от начала 273
 дискование сахарная свекла
-по пу площадь за день 70 площадь с начала операции 1004
-отделение 17 площадь за день 70 площадь с начала операции 302
+по пу день 70 от начала 1004
+отделение 17 день 70 от начала 302
 предпосевная культура под озимая пшеница
-по пу площадь за день 91 площадь с начала операции 1403
-отделение 11 площадь за день 45 площадь с начала операции 373
-отделение 12 площадь за день 46 площадь с начала операции 363</t>
+по пу день 91 от начала 1403
+отделение 11 день 45 от начала 373
+отделение 12 день 46 от начала 363</t>
         </is>
       </c>
     </row>
@@ -678,15 +678,15 @@
       <c r="B8" t="inlineStr">
         <is>
           <t>15.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 117/7381
+Внесение мин удобрений под оз пшеницу ПУ Юг 117/7381
 Отд 17-117/1560</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
           <t>15.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 117 площадь с начала операции 7381
-отделение 17-площадь за день 117 площадь с начала операции 1560</t>
+внесение минеральные удобрений под озимая пшеницу пу юг день 117 от начала 7381
+отделение 17 день 117 от начала 1560</t>
         </is>
       </c>
     </row>
@@ -704,8 +704,8 @@
       <c r="C9" t="inlineStr">
         <is>
           <t>15.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 88 площадь с начала операции 384
-отделение 12- площадь за день 88 площадь с начала операции 325</t>
+внесение противозлакового гербецида на озимая рапсе пу юг день 88 от начала 384
+отделение 12 день 88 от начала 325</t>
         </is>
       </c>
     </row>
@@ -736,21 +736,21 @@
       <c r="C10" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу площадь за день 26 площадь с начала операции 566
-отделение 12 площадь за день 26 площадь с начала операции 299
+по пу день 26 от начала 566
+отделение 12 день 26 от начала 299
 предпосевная культура под озимая пшеница
-по пу площадь за день 247 площадь с начала операции 1650
-отделение 11 площадь за день 161 площадь с начала операции 534
-отделение 12 площадь за день 86 площадь с начала операции 449
+по пу день 247 от начала 1650
+отделение 11 день 161 от начала 534
+отделение 12 день 86 от начала 449
 дискование сахарная свекла
-по пу площадь за день 47 площадь с начала операции 1051
-отделение 17 площадь за день 47 площадь с начала операции 349
+по пу день 47 от начала 1051
+отделение 17 день 47 от начала 349
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 23 площадь с начала операции 922
-отделение 17 площадь за день 23 площадь с начала операции 255
+по пу день 23 от начала 922
+отделение 17 день 23 от начала 255
 выравнивание зяби под многолетние травы
-по пу площадь за день 48 площадь с начала операции 337
-отделение 12 площадь за день 48 площадь с начала операции 70</t>
+по пу день 48 от начала 337
+отделение 12 день 48 от начала 70</t>
         </is>
       </c>
     </row>
@@ -774,14 +774,14 @@
       <c r="C11" t="inlineStr">
         <is>
           <t>пахота зяби под многолетние травы
-по пу площадь за день 13 площадь с начала операции 579
-отделение 12 площадь за день 13 площадь с начала операции 312
+по пу день 13 от начала 579
+отделение 12 день 13 от начала 312
 второе дискование сахарная свекла
-по пу площадь за день 35 площадь с начала операции 957
-отделение 17 площадь за день 35 площадь с начала операции 290
+по пу день 35 от начала 957
+отделение 17 день 35 от начала 290
 выравнивание зяби под многолетние травы
-по пу площадь за день 101 площадь с начала операции 438
-отделение 12 площадь за день 101 площадь с начала операции 171</t>
+по пу день 101 от начала 438
+отделение 12 день 101 от начала 171</t>
         </is>
       </c>
     </row>
@@ -799,8 +799,8 @@
       <c r="C12" t="inlineStr">
         <is>
           <t>16.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 60 площадь с начала операции 444
-отделение 11-площадь за день 60 площадь с начала операции 119</t>
+внесение противозлакового гербецида на озимая рапсе пу юг день 60 от начала 444
+отделение 11 день 60 от начала 119</t>
         </is>
       </c>
     </row>
@@ -827,17 +827,17 @@
       <c r="C13" t="inlineStr">
         <is>
           <t>пахота зяби под сою 
-по пу площадь за день 7 площадь с начала операции 1402
-отделение 17 площадь за день 7 площадь с начала операции 141
+по пу день 7 от начала 1402
+отделение 17 день 7 от начала 141
 выравнивание зяби под кукурузный силос
-по пу площадь за день 16 площадь с начала операции 16
-отделение 12 площадь за день 16 площадь с начала операции 16
+по пу день 16 от начала 16
+отделение 12 день 16 от начала 16
 выравнивание зяби под сахарная свекла
-по пу площадь за день 67 площадь с начала операции 912
-отделение 12 площадь за день 67 площадь с начала операции 376
-2-ое дискование сахарная свекла 
-по пу площадь за день 59 площадь с начала операции 1041
-отделение 17 площадь за день 59 площадь с начала операции 349</t>
+по пу день 67 от начала 912
+отделение 12 день 67 от начала 376
+2 ое дискование сахарная свекла 
+по пу день 59 от начала 1041
+отделение 17 день 59 от начала 349</t>
         </is>
       </c>
     </row>
@@ -864,17 +864,17 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 5 площадь с начала операции 1427
-отделение 17 площадь за день 5 площадь с начала операции 166
+по пу день 5 от начала 1427
+отделение 17 день 5 от начала 166
 пахота зяби под кукурузный силос
-по пу площадь за день 26 площадь с начала операции 445
-отделение 11 площадь за день 26 площадь с начала операции 180
+по пу день 26 от начала 445
+отделение 11 день 26 от начала 180
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 41 площадь с начала операции 1142
-отделение 17 площадь за день 41 площадь с начала операции 450
+по пу день 41 от начала 1142
+отделение 17 день 41 от начала 450
 выравнивание зяби под сахарная свекла
-по пу площадь за день 35 площадь с начала операции 1269
-отделение 11 площадь за день 35 площадь с начала операции 400</t>
+по пу день 35 от начала 1269
+отделение 11 день 35 от начала 400</t>
         </is>
       </c>
     </row>
@@ -904,20 +904,20 @@
       <c r="C15" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1440
-отделение 17 площадь за день 13 площадь с начала операции 179
+по пу день 13 от начала 1440
+отделение 17 день 13 от начала 179
 пахота зяби под кукурузный силос
-по пу площадь за день 26 площадь с начала операции 471
-отделение 11 площадь за день 26 площадь с начала операции 206
+по пу день 26 от начала 471
+отделение 11 день 26 от начала 206
 дискование сахарная свекла
-по пу площадь за день 85 площадь с начала операции 1237
-отделение 17 площадь за день 85 площадь с начала операции 535
+по пу день 85 от начала 1237
+отделение 17 день 85 от начала 535
 выравнивание зяби под сахарная свекла
-по пу площадь за день 45 площадь с начала операции 1314
-отделение 11 площадь за день 10 площадь с начала операции 410
-отделение 12 площадь за день 35 площадь с начала операции 661
+по пу день 45 от начала 1314
+отделение 11 день 10 от начала 410
+отделение 12 день 35 от начала 661
 выравнивание зяби под подсолнухи
-отделение 11 площадь за день 41 площадь с начала операции 41</t>
+отделение 11 день 41 от начала 41</t>
         </is>
       </c>
     </row>
@@ -938,10 +938,10 @@
       <c r="C16" t="inlineStr">
         <is>
           <t>15.11 мир
-пахота зяби под кукурузу 7 га день, 569 га от начала, 84%, 103 га остаток.
-пахота зяби под сою 50 га день, 849 га от начала, 75%, 290 га остаток.
+пахота зяби под кукурузу 7 день, 569 от начала, 84 , 103 остаток.
+пахота зяби под сою 50 день, 849 от начала, 75 , 290 остаток.
 работало 4 агрегата.
-выравнивание зяби под сахарную свёклу 43 га день, 917 га от начала, 96 %, 35 га остаток.
+выравнивание зяби под сахарную свёклу 43 день, 917 от начала, 96 , 35 остаток.
 работал 1 агрегат.</t>
         </is>
       </c>
@@ -960,7 +960,7 @@
       <c r="C17" t="inlineStr">
         <is>
           <t>тск 
-выравнивание зяби под сою 199 га/ с нарастающим 533 га (8%) остаток 5564 га
+выравнивание зяби под сою 199 с нарастающим 533 8 остаток 5564 
 осадки 2 мм</t>
         </is>
       </c>
@@ -990,19 +990,19 @@
       <c r="C18" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 11 площадь с начала операции 1451
-отделение 17 площадь за день 11 площадь с начала операции 190
+по пу день 11 от начала 1451
+отделение 17 день 11 от начала 190
 дискование сахарная свекла
-по пу площадь за день 118 площадь с начала операции 1355
-отделение 17 площадь за день 118 площадь с начала операции 653
+по пу день 118 от начала 1355
+отделение 17 день 118 от начала 653
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 35 площадь с начала операции 1177
-отделение 17 площадь за день 35 площадь с начала операции 485
+по пу день 35 от начала 1177
+отделение 17 день 35 от начала 485
 выравнивание зяби под сахарная свекла
-по пу площадь за день 51 площадь с начала операции 1365
-отделение 11 площадь за день 51 площадь с начала операции 461
+по пу день 51 от начала 1365
+отделение 11 день 51 от начала 461
 выравнивание зяби под подсолнухи
-отделение 11 площадь за день 47 площадь с начала операции 89</t>
+отделение 11 день 47 от начала 89</t>
         </is>
       </c>
     </row>
@@ -1013,15 +1013,15 @@
       <c r="B19" t="inlineStr">
         <is>
           <t>23.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 216/7698
+Внесение мин удобрений под оз пшеницу ПУ Юг 216/7698
 Отд 17-216/1877</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
           <t>23.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 216 площадь с начала операции 7698
-отделение 17-площадь за день 216 площадь с начала операции 1877</t>
+внесение минеральные удобрений под озимая пшеницу пу юг день 216 от начала 7698
+отделение 17 день 216 от начала 1877</t>
         </is>
       </c>
     </row>
@@ -1039,8 +1039,8 @@
       <c r="C20" t="inlineStr">
         <is>
           <t>23.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 134 площадь с начала операции 578
-отделение 11-площадь за день 134 площадь с начала операции 253</t>
+внесение противозлакового гербецида на озимая рапсе пу юг день 134 от начала 578
+отделение 11 день 134 от начала 253</t>
         </is>
       </c>
     </row>
@@ -1068,18 +1068,18 @@
       <c r="C21" t="inlineStr">
         <is>
           <t>пахота зяби под сою
-по пу площадь за день 13 площадь с начала операции 1464
-отделение 17 площадь за день 13 площадь с начала операции 203
+по пу день 13 от начала 1464
+отделение 17 день 13 от начала 203
 дискование сахарная свекла
-по пу площадь за день 36 площадь с начала операции 1391
-отделение 16 площадь за день 25 площадь с начала операции 25
-отделение 17 площадь за день 11 площадь с начала операции 664
+по пу день 36 от начала 1391
+отделение 16 день 25 от начала 25
+отделение 17 день 11 от начала 664
 второе дискование сахарная свекла под пшеница
-по пу площадь за день 111 площадь с начала операции 1288
-отделение 17 площадь за день 111 площадь с начала операции 596
+по пу день 111 от начала 1288
+отделение 17 день 111 от начала 596
 выравнивание зяби под сахарная свекла
-по пу площадь за день 30 площадь с начала операции 1395
-отделение 11 площадь за день 30 площадь с начала операции 491</t>
+по пу день 30 от начала 1395
+отделение 11 день 30 от начала 491</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="C22" t="inlineStr">
         <is>
           <t>тск 
-выравнивание зяби под сою 187 га/ с нарастающим 740 га (13%) остаток 5357 га
+выравнивание зяби под сою 187 с нарастающим 740 13 остаток 5357 
 осадки 1 мм</t>
         </is>
       </c>
@@ -1118,10 +1118,10 @@
       <c r="C23" t="inlineStr">
         <is>
           <t>19.11 мир
-пахота зяби под кукурузу 8 га день, 672 га от начала, 100%
-пахота зяби под сою 70 га день, 1009 га от начала, 89%, 130 га остаток.
+пахота зяби под кукурузу 8 день, 672 от начала, 100 
+пахота зяби под сою 70 день, 1009 от начала, 89 , 130 остаток.
 работало 3 агрегата.
-выравнивание зяби под подсолнечник 15 га день, 15 га от начала, 2%, остаток 691га. работал 1 агрегат</t>
+выравнивание зяби под подсолнечник 15 день, 15 от начала, 2 , остаток 691га. работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -1139,8 +1139,8 @@
       <c r="C24" t="inlineStr">
         <is>
           <t>24.10
-внесение противозлакового гербецида на озимая рапсе пу юг площадь за день 108 площадь с начала операции 686
-отделение 11-площадь за день 108 площадь с начала операции 361</t>
+внесение противозлакового гербецида на озимая рапсе пу юг день 108 от начала 686
+отделение 11 день 108 от начала 361</t>
         </is>
       </c>
     </row>
@@ -1151,15 +1151,15 @@
       <c r="B25" t="inlineStr">
         <is>
           <t>24.10
-Внесение мин удобрений под оз пшеницу 2025 г ПУ Юг 123/7821
+Внесение мин удобрений под оз пшеницу ПУ Юг 123/7821
 Отд 16-123/1123</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
           <t>24.10
-внесение минеральные удобрений под озимая пшеницу 2025 г пу юг площадь за день 123 площадь с начала операции 7821
-отделение 16-площадь за день 123 площадь с начала операции 1123</t>
+внесение минеральные удобрений под озимая пшеницу пу юг день 123 от начала 7821
+отделение 16 день 123 от начала 1123</t>
         </is>
       </c>
     </row>
@@ -1178,9 +1178,9 @@
       <c r="C26" t="inlineStr">
         <is>
           <t>17.07
-внесение минеральные удобрений под озимая рапс пу юг площадь за день 206 площадь с начала операции 319
-отделение 16- площадь за день 119 площадь с начала операции 119
-отделение 17-площадь за день 87 площадь с начала операции 87</t>
+внесение минеральные удобрений под озимая рапс пу юг день 206 от начала 319
+отделение 16 день 119 от начала 119
+отделение 17 день 87 от начала 87</t>
         </is>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
       <c r="B27" t="inlineStr">
         <is>
           <t>17.07
-Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 83/739
+Внесение мин удобрений под сах свёклу ПУ Юг- 83/739
 Отд 17-83/83
 Внесение минеральных удобрений под оз ячмень ПУ Юг 80/320
 Отд 12-80/219</t>
@@ -1200,10 +1200,10 @@
       <c r="C27" t="inlineStr">
         <is>
           <t>17.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 83 площадь с начала операции 739
-отделение 17-площадь за день 83 площадь с начала операции 83
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 80 площадь с начала операции 320
-отделение 12-площадь за день 80 площадь с начала операции 219</t>
+внесение минеральные удобрений под сахарная свёклу пу юг день 83 от начала 739
+отделение 17 день 83 от начала 83
+внесение минеральных удобрений под озимая ячмень пу юг день 80 от начала 320
+отделение 12 день 80 от начала 219</t>
         </is>
       </c>
     </row>
@@ -1246,35 +1246,35 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 20 площадь с начала операции 8497
-отделение 17 площадь за день 20 площадь с начала операции 1793
+          <t>дискование озимая пшеницы 
+по пу день 20 от начала 8497
+отделение 17 день 20 от начала 1793
 второе дискование под сахарная свекла
-по пу площадь за день 112 площадь с начала операции 817
-отделение 16 площадь за день 112 площадь с начала операции 594
+по пу день 112 от начала 817
+отделение 16 день 112 от начала 594
 второе дискование под озимая ячмень 
-по пу площадь за день 61 площадь с начала операции 352
-отделение 11 площадь за день 32 площадь с начала операции 32
-отделение 12 площадь за день 29 площадь с начала операции 219
-дискование кукурузный силос
-по пу площадь за день 119 площадь с начала операции 338
-отделение 12 площадь за день 37 площадь с начала операции 37
-отделение 17 площадь за день 82 площадь с начала операции 301
+по пу день 61 от начала 352
+отделение 11 день 32 от начала 32
+отделение 12 день 29 от начала 219
+дискование кукурузы силос
+по пу день 119 от начала 338
+отделение 12 день 37 от начала 37
+отделение 17 день 82 от начала 301
 выравнивание многолетние травы под озимая пшеница
-отделение 11 площадь за день 44 площадь с начала операции 99
+отделение 11 день 44 от начала 99
 пахота под многолетние травы
-по пу площадь за день 16 площадь с начала операции 340
-отделение 11 площадь за день 16 площадь с начала операции 169
+по пу день 16 от начала 340
+отделение 11 день 16 от начала 169
 пахота под сахарная свекла
-отделение 12 площадь за день 22 площадь с начала операции 59
+отделение 12 день 22 от начала 59
 чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 91 площадь с начала операции 222
-отделение 12 площадь за день 91 площадь с начала операции 91
+ дракула 
+по пу день 91 от начала 222
+отделение 12 день 91 от начала 91
 прикат под озимая ячмень
-по пу площадь за день 49 площадь с начала операции 141 
-отделение 12 площадь за день 40 площадь с начала операции 40
-отделение 16 площадь за день 9 площадь с начала операции 101</t>
+по пу день 49 от начала 141 
+отделение 12 день 40 от начала 40
+отделение 16 день 9 от начала 101</t>
         </is>
       </c>
     </row>
@@ -1285,15 +1285,15 @@
       <c r="B29" t="inlineStr">
         <is>
           <t>19.07
-Внесение мин удобрений под сах свёклу 2025 г ПУ Юг- 120/857
+Внесение мин удобрений под сах свёклу ПУ Юг- 120/857
 Отд 16- 120/551</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
           <t>19.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 120 площадь с начала операции 857
-отделение 16- площадь за день 120 площадь с начала операции 551</t>
+внесение минеральные удобрений под сахарная свёклу пу юг день 120 от начала 857
+отделение 16 день 120 от начала 551</t>
         </is>
       </c>
     </row>
@@ -1305,14 +1305,14 @@
         <is>
           <t>19.07
 Внесение минеральных удобрений под оз ячмень ПУ Юг 242/562
-Отд 11-242/242</t>
+Отд 11 242/242</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
           <t>19.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 242 площадь с начала операции 562
-отделение 11-площадь за день 242 площадь с начала операции 242</t>
+внесение минеральных удобрений под озимая ячмень пу юг день 242 от начала 562
+отделение 11 день 242 от начала 242</t>
         </is>
       </c>
     </row>
@@ -1336,14 +1336,14 @@
       <c r="C31" t="inlineStr">
         <is>
           <t>север 
-отд7 пахота с свекла площадь за день 41 площадь с начала операции 501
-отд20 площадь за день 20 площадь с начала операции 281 по пу площадь за день 61 площадь с начала операции 793
-отделение 3 пахота подс.площадь за день 60 площадь с начала операции 231
+отд7 пахота с свекла день 41 от начала 501
+отд20 день 20 от начала 281 по пу день 61 от начала 793
+отделение 3 пахота подс.день 60 от начала 231
 по пу 231
-дискование к. сил отделение 7. площадь за день 32 площадь с начала операции 352
-пу- 484
-дискование под озимая пшеница езубов площадь за день 20 площадь с начала операции 281
-дискование под с. свекла отделение 10 площадь за день 83 площадь с начала операции 203 пу-1065га</t>
+дискование кукурузный силос отделение 7. день 32 от начала 352
+пу 484
+дискование под озимая пшеница езубов день 20 от начала 281
+дискование под с. свекла отделение 10 день 83 от начала 203 пу 1065га</t>
         </is>
       </c>
     </row>
@@ -1360,9 +1360,9 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>внесение удобрений под рапс отделение 7 -площадь за день 138 площадь с начала операции 270
-дисклвание под рапс площадь за день 40 площадь с начала операции 172
-дискование после кукурузный сил отделение 7-площадь за день 32 площадь с начала операции 352 по пу 484га</t>
+          <t>внесение удобрений под рапс отделение 7 день 138 от начала 270
+дисклвание под рапс день 40 от начала 172
+дискование после кукурузы силос отделение 7 день 32 от начала 352 по пу 484га</t>
         </is>
       </c>
     </row>
@@ -1402,32 +1402,32 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 35 площадь с начала операции 8532
-отделение 17 площадь за день 35 площадь с начала операции 1828
+          <t>дискование озимая пшеницы 
+по пу день 35 от начала 8532
+отделение 17 день 35 от начала 1828
 второе дискование под сахарная свекла
-по пу площадь за день 97 площадь с начала операции 914
-отделение 16 площадь за день 97 площадь с начала операции 691
+по пу день 97 от начала 914
+отделение 16 день 97 от начала 691
 второе дискование под озимая ячмень 
-по пу площадь за день 117 площадь с начала операции 469
-отделение 11 площадь за день 117 площадь с начала операции 149
+по пу день 117 от начала 469
+отделение 11 день 117 от начала 149
 второе дискование под рапс
-по пу площадь за день 29 площадь с начала операции 142
-отделение 16 площадь за день 29 площадь с начала операции 29
-дискование кукурузный силос
-по пу площадь за день 142 площадь с начала операции 480
-отделение 12 площадь за день 75 площадь с начала операции 112
-отделение 17 площадь за день 67 площадь с начала операции 368
+по пу день 29 от начала 142
+отделение 16 день 29 от начала 29
+дискование кукурузы силос
+по пу день 142 от начала 480
+отделение 12 день 75 от начала 112
+отделение 17 день 67 от начала 368
 пахота под многолетние травы
-по пу площадь за день 21 площадь с начала операции 361
-отделение 11 площадь за день 18 площадь с начала операции 187
-отделение 17 площадь за день 3 площадь с начала операции 3
+по пу день 21 от начала 361
+отделение 11 день 18 от начала 187
+отделение 17 день 3 от начала 3
 пахота под сахарная свекла
-отделение 12 площадь за день 22 площадь с начала операции 81
+отделение 12 день 22 от начала 81
 чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 64 площадь с начала операции 286
-отделение 12 площадь за день 64 площадь с начала операции 155</t>
+ дракула 
+по пу день 64 от начала 286
+отделение 12 день 64 от начала 155</t>
         </is>
       </c>
     </row>
@@ -1456,35 +1456,33 @@
 Пахота под сах св
 Отд 12 24/105
 Чизел под оз ячмень
-(дракула)
 По Пу 64/350
 Отд 12 64/219</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 95 площадь с начала операции 8627
-отделение 17 площадь за день 95 площадь с начала операции 1923
+          <t>дискование озимая пшеницы 
+по пу день 95 от начала 8627
+отделение 17 день 95 от начала 1923
 второе дискование под сахарная свекла
-по пу площадь за день 151 площадь с начала операции 1065
-отделение 16 площадь за день 151 площадь с начала операции 842
+по пу день 151 от начала 1065
+отделение 16 день 151 от начала 842
 второе дискование под озимая ячмень 
-по пу площадь за день 136 площадь с начала операции 605
-отделение 11 площадь за день 70 площадь с начала операции 219
-отделение 11 площадь за день 66 площадь с начала операции 285
+по пу день 136 от начала 605
+отделение 11 день 70 от начала 219
+отделение 11 день 66 от начала 285
 второе дискование под рапс
-по пу площадь за день 60 площадь с начала операции 202
-отделение 16 площадь за день 60 площадь с начала операции 89
+по пу день 60 от начала 202
+отделение 16 день 60 от начала 89
 пахота под многолетние травы
-по пу площадь за день 25 площадь с начала операции 386
-отделение 17 площадь за день 25 площадь с начала операции 28
+по пу день 25 от начала 386
+отделение 17 день 25 от начала 28
 пахота под сахарная свекла
-отделение 12 площадь за день 24 площадь с начала операции 105
+отделение 12 день 24 от начала 105
 чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 64 площадь с начала операции 350
-отделение 12 площадь за день 64 площадь с начала операции 219</t>
+по пу день 64 от начала 350
+отделение 12 день 64 от начала 219</t>
         </is>
       </c>
     </row>
@@ -1502,8 +1500,8 @@
       <c r="C35" t="inlineStr">
         <is>
           <t>21.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 78 площадь с начала операции 640
-отделение 12-площадь за день 78 площадь с начала операции 297</t>
+внесение минеральных удобрений под озимая ячмень пу юг день 78 от начала 640
+отделение 12 день 78 от начала 297</t>
         </is>
       </c>
     </row>
@@ -1522,9 +1520,9 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>21.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 220 площадь с начала операции 1077
-отделение 12-площадь за день 118 площадь с начала операции 234
-отделение 16-площадь за день 102 площадь с начала операции 653</t>
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 220 от начала 1077
+отделение 12 день 118 от начала 234
+отделение 16 день 102 от начала 653</t>
         </is>
       </c>
     </row>
@@ -1542,8 +1540,8 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>21.07
-внесение минеральные удобрений под озимая рапс пу юг площадь за день 103 площадь с начала операции 422
-отделение 16-площадь за день 103 площадь с начала операции 222</t>
+внесение минеральные удобрений под озимая рапс пу юг день 103 от начала 422
+отделение 16 день 103 от начала 222</t>
         </is>
       </c>
     </row>
@@ -1582,31 +1580,31 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>2-е дискование под озимая ячмень
-по пу площадь за день 35 площадь с начала операции 640
-отделение 11 площадь за день 23 площадь с начала операции 242
-отделение 12 площадь за день 12 площадь с начала операции 297
+          <t>второе дискование под озимая ячмень
+по пу день 35 от начала 640
+отделение 11 день 23 от начала 242
+отделение 12 день 12 от начала 297
 второе дискование под сахарная свекла
-по пу площадь за день 54 площадь с начала операции 1119
-отделение 12 площадь за день 54 площадь с начала операции 170
+по пу день 54 от начала 1119
+отделение 12 день 54 от начала 170
 второе дискование под озимая рапс
-по пу площадь за день 60 площадь с начала операции 262
-отделение 16 площадь за день 60 площадь с начала операции 149
-дискование кукурузный силос
-по пу площадь за день 30 площадь с начала операции 510
-отделение 11 площадь за день 30 площадь с начала операции 30
+по пу день 60 от начала 262
+отделение 16 день 60 от начала 149
+дискование кукурузы силос
+по пу день 30 от начала 510
+отделение 11 день 30 от начала 30
 пахота под многолетние травы
-по пу площадь за день 26 площадь с начала операции 412
-отделение 17 площадь за день 26 площадь с начала операции 54
+по пу день 26 от начала 412
+отделение 17 день 26 от начала 54
 пахота под сахарная свекла
-по пу площадь за день 13 площадь с начала операции 118
-отделение 11 площадь за день 13 площадь с начала операции 13
+по пу день 13 от начала 118
+отделение 11 день 13 от начала 13
 чизлование под озимая ячмень
-(дракула)
-по пу площадь за день 39 площадь с начала операции 389
-отделение 12 площадь за день 39 площадь с начала операции 258
+ дракула 
+по пу день 39 от начала 389
+отделение 12 день 39 от начала 258
 прикат многолетние травы под озимая пшеница
-отделение 11 площадь за день 60 площадь с начала операции 60</t>
+отделение 11 день 60 от начала 60</t>
         </is>
       </c>
     </row>
@@ -1651,37 +1649,37 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>диск озимая пшеницы 
-по пу площадь за день 19 площадь с начала операции 8646
-отделение 17 площадь за день 19 площадь с начала операции 1942
+          <t>дискование озимая пшеницы 
+по пу день 19 от начала 8646
+отделение 17 день 19 от начала 1942
 второе дискование под сахарная свекла
-по пу площадь за день 60 площадь с начала операции 1179
-отделение 12 площадь за день 60 площадь с начала операции 230
+по пу день 60 от начала 1179
+отделение 12 день 60 от начала 230
 второе дискование под озимая рапс
-по пу площадь за день 102 площадь с начала операции 364
-отделение 16 площадь за день 102 площадь с начала операции 251
+по пу день 102 от начала 364
+отделение 16 день 102 от начала 251
 второе дискование под озимая ячмень
-по пу площадь за день 4 площадь с начала операции 644
-отделение 17 площадь за день 4 площадь с начала операции 4
-дискование кукурузный силос
-по пу площадь за день 70 площадь с начала операции 580
-отделение 11 площадь за день 70 площадь с начала операции 100
+по пу день 4 от начала 644
+отделение 17 день 4 от начала 4
+дискование кукурузы силос
+по пу день 70 от начала 580
+отделение 11 день 70 от начала 100
 чизлование под озимая ячмень
-по пу площадь за день 67 площадь с начала операции 456
-отделение 11 площадь за день 28 площадь с начала операции 28
-отделение 12 площадь за день 39 площадь с начала операции 297
+по пу день 67 от начала 456
+отделение 11 день 28 от начала 28
+отделение 12 день 39 от начала 297
 пахота под многолетние травы
-по пу площадь за день 2 площадь с начала операции 414
-отделение 17 площадь за день 2 площадь с начала операции 56
+по пу день 2 от начала 414
+отделение 17 день 2 от начала 56
 пахота под сахарная свекла
-по пу площадь за день 19 площадь с начала операции 137
-отделение 11 площадь за день 8 площадь с начала операции 21
-отделение 12 площадь за день 11 площадь с начала операции 116
+по пу день 19 от начала 137
+отделение 11 день 8 от начала 21
+отделение 12 день 11 от начала 116
 прикат под озимая ячмень
-по пу площадь за день 179 площадь с начала операции 320
-отделение 12 площадь за день 179 площадь с начала операции 219
+по пу день 179 от начала 320
+отделение 12 день 179 от начала 219
 прикат многолетние травы под озимая пшеница
-отделение 11 площадь за день 39 площадь с начала операции 99</t>
+отделение 11 день 39 от начала 99</t>
         </is>
       </c>
     </row>
@@ -1715,24 +1713,24 @@
       <c r="C40" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу площадь за день 40 площадь с начала операции 183
-отделение 11 площадь за день 3 площадь с начала операции 24
-отделение 12 площадь за день 24 площадь с начала операции 146
-отделение 16 площадь за день 13 площадь с начала операции 13
+по пу день 40 от начала 183
+отделение 11 день 3 от начала 24
+отделение 12 день 24 от начала 146
+отделение 16 день 13 от начала 13
 пахота под многолетние травы
-по пу площадь за день 3 площадь с начала операции 417
-отделение 17 площадь за день 3 площадь с начала операции 59
+по пу день 3 от начала 417
+отделение 17 день 3 от начала 59
 дискование озимая пшеницы
-по пу площадь за день 40 площадь с начала операции 8686
-отделение 12 площадь за день 40 площадь с начала операции 2542
+по пу день 40 от начала 8686
+отделение 12 день 40 от начала 2542
 второе дискование под сахарная свекла
-по пу площадь за день 4 площадь с начала операции 1183
-отделение 12 площадь за день 4 площадь с начала операции 234
+по пу день 4 от начала 1183
+отделение 12 день 4 от начала 234
 второе дискование под озимая ячмень
-по пу площадь за день 35 площадь с начала операции 679
-отделение 17 площадь за день 35 площадь с начала операции 39
+по пу день 35 от начала 679
+отделение 17 день 35 от начала 39
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 2 площадь с начала операции 2</t>
+отделение 12 день 2 от начала 2</t>
         </is>
       </c>
     </row>
@@ -1750,8 +1748,8 @@
       <c r="C41" t="inlineStr">
         <is>
           <t>25.07
-внесение минеральных удобрений под озимая ячмень пу юг площадь за день 69 площадь с начала операции 819
-отделение 17-площадь за день 110 площадь с начала операции 179</t>
+внесение минеральных удобрений под озимая ячмень пу юг день 69 от начала 819
+отделение 17 день 110 от начала 179</t>
         </is>
       </c>
     </row>
@@ -1794,33 +1792,33 @@
       <c r="C42" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу площадь за день 58 площадь с начала операции 241
-отделение 11 площадь за день 13 площадь с начала операции 37
-отделение 12 площадь за день 24 площадь с начала операции 170
-отделение 16 площадь за день 21 площадь с начала операции 34
+по пу день 58 от начала 241
+отделение 11 день 13 от начала 37
+отделение 12 день 24 от начала 170
+отделение 16 день 21 от начала 34
 пахота под многолетние травы
-по пу площадь за день 11 площадь с начала операции 428
-отделение 17 площадь за день 11 площадь с начала операции 70
+по пу день 11 от начала 428
+отделение 17 день 11 от начала 70
 дискование озимая пшеницы
-по пу площадь за день 31 площадь с начала операции 8717
-отделение 12 площадь за день 31 площадь с начала операции 2573
-дискование кукурузный силос
-по пу площадь за день 26 площадь с начала операции 607
-отделение 12 площадь за день 26 площадь с начала операции 138
+по пу день 31 от начала 8717
+отделение 12 день 31 от начала 2573
+дискование кукурузы силос
+по пу день 26 от начала 607
+отделение 12 день 26 от начала 138
 второе дискование под рапс
-по пу площадь за день 22 площадь с начала операции 386
-отделение 16 площадь за день 22 площадь с начала операции 273
+по пу день 22 от начала 386
+отделение 16 день 22 от начала 273
 второе дискование под озимая ячмень
-по пу площадь за день 43 площадь с начала операции 722
-отделение 17 площадь за день 43 площадь с начала операции 82
+по пу день 43 от начала 722
+отделение 17 день 43 от начала 82
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 10 площадь с начала операции 12
+отделение 12 день 10 от начала 12
 чизлование под озимая ячмень
-по пу площадь за день 30 площадь с начала операции 457
-отделение 11 площадь за день 30 площадь с начала операции 59
+по пу день 30 от начала 457
+отделение 11 день 30 от начала 59
 прикат под озимая ячмень 
-по пу площадь за день 78 площадь с начала операции 398
-отделение 12 площадь за день 78 площадь с начала операции 297</t>
+по пу день 78 от начала 398
+отделение 12 день 78 от начала 297</t>
         </is>
       </c>
     </row>
@@ -1838,8 +1836,8 @@
       <c r="C43" t="inlineStr">
         <is>
           <t>26.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 80 площадь с начала операции 1157
-отделение 12-площадь за день 80 площадь с начала операции 314</t>
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 80 от начала 1157
+отделение 12 день 80 от начала 314</t>
         </is>
       </c>
     </row>
@@ -1869,32 +1867,32 @@
 Отделение 11 94/99 закончили
 Прокатывание посевов овса 
 По ПУ 94/99
-Отделение 94/99 закончили</t>
+Отделение 11 94/99 закончили</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>пу «юг» 3.03
+          <t>пу юг 3.03
 выравнивание зяби под сахарная свекла
-по пу площадь за день 130 площадь с начала операции 2657
-отделение 11 площадь за день 31 площадь с начала операции 705
-отделение 17 площадь за день 99 площадь с начала операции 687
+по пу день 130 от начала 2657
+отделение 11 день 31 от начала 705
+отделение 17 день 99 от начала 687
 выравнивание зяби под подсолнечник
-по пу площадь за день 50 площадь с начала операции 599
-отделение 11 площадь за день 50 площадь с начала операции 50
+по пу день 50 от начала 599
+отделение 11 день 50 от начала 50
 выравнивание зяби по кукурузный силос
-по пу площадь за день 167 площадь с начала операции 399
-отделение 11 площадь за день 50 площадь с начала операции 73
-отделение 17 площадь за день 117 площадь с начала операции 156
+по пу день 167 от начала 399
+отделение 11 день 50 от начала 73
+отделение 17 день 117 от начала 156
 выравнивание зяби под сою 
-по пу площадь за день 45 площадь с начала операции 399
-отделение 16 площадь за день 45 площадь с начала операции 334
+по пу день 45 от начала 399
+отделение 16 день 45 от начала 334
 посев овса 
-по пу площадь за день 94 площадь с начала операции 99
-отделение 11 площадь за день 94 площадь с начала операции 99 закончили
+по пу день 94 от начала 99
+отделение 11 день 94 от начала 99 закончили
 прокатывание посевов овса 
-по пу площадь за день 94 площадь с начала операции 99
-отделение площадь за день 94 площадь с начала операции 99 закончили</t>
+по пу день 94 от начала 99
+отделение 11 день 94 от начала 99 закончили</t>
         </is>
       </c>
     </row>
@@ -1926,24 +1924,24 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>пу «юг» 4.03 
+          <t>пу юг 4.03 
 выравнивание зяби под сахарная свекла
-по пу площадь за день 92 площадь с начала операции 2749
-отделение 17 площадь за день 92 площадь с начала операции 779 
+по пу день 92 от начала 2749
+отделение 17 день 92 от начала 779 
 выравнивание зяби под подсолнечник
-по пу площадь за день 125 площадь с начала операции 724
-отделение 11 площадь за день 83 площадь с начала операции 133
-отделение 17 площадь за день 42 площадь с начала операции 42
+по пу день 125 от начала 724
+отделение 11 день 83 от начала 133
+отделение 17 день 42 от начала 42
 выравнивание зяби по кукурузный силос
-по пу площадь за день 86 площадь с начала операции 485
-отделение 11 площадь за день 33 площадь с начала операции 106
-отделение 17 площадь за день 53 площадь с начала операции 209
+по пу день 86 от начала 485
+отделение 11 день 33 от начала 106
+отделение 17 день 53 от начала 209
 выравнивание зяби под кукурузное зерно
-по пу площадь за день 17 площадь с начала операции 588
-отделение 11 площадь за день 17 площадь с начала операции 108
+по пу день 17 от начала 588
+отделение 11 день 17 от начала 108
 выравнивание зяби под сою 
-по пу площадь за день 60 площадь с начала операции 459
-отделение 16 площадь за день 60 площадь с начала операции 394</t>
+по пу день 60 от начала 459
+отделение 16 день 60 от начала 394</t>
         </is>
       </c>
     </row>
@@ -1971,20 +1969,20 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>вырав зяби под подсол
-по пу площадь за день 199 площадь с начала операции 923
-отделение 11 площадь за день 108 площадь с начала операции 241
-отделение 17 площадь за день 91 площадь с начала операции 133
-выравнивание зяби под сах/ свекла
-по пу площадь за день 78 площадь с начала операции 2827
-отделение 17 площадь за день 78 площадь с начала операции 857
+          <t>выравнивание зяби под подсол
+по пу день 199 от начала 923
+отделение 11 день 108 от начала 241
+отделение 17 день 91 от начала 133
+выравнивание зяби под сах свекла
+по пу день 78 от начала 2827
+отделение 17 день 78 от начала 857
 выравнивание зяби под сою
-по пу площадь за день 121 площадь с начала операции 580
-отделение 11 площадь за день 80 площадь с начала операции 80
-отделение 16 площадь за день 41 площадь с начала операции 381
+по пу день 121 от начала 580
+отделение 11 день 80 от начала 80
+отделение 16 день 41 от начала 381
 выравнивание зяби под кукурузный силос
-по пу площадь за день 43 площадь с начала операции 528
-отделение 11 площадь за день 43 площадь с начала операции 149</t>
+по пу день 43 от начала 528
+отделение 11 день 43 от начала 149</t>
         </is>
       </c>
     </row>
@@ -2018,26 +2016,26 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>выравн зяби под сахарная свекла
-по пу площадь за день 24 площадь с начала операции 2851
-отделение 17 площадь за день 24 площадь с начала операции 881
+          <t>выравнивание зяби под сахарная свекла
+по пу день 24 от начала 2851
+отделение 17 день 24 от начала 881
 выравнивание зяби под подсолнухи
-по пу площадь за день 71 площадь с начала операции 994
-отделение 11 площадь за день 37 площадь с начала операции 278
-отделение 17 площадь за день 34 площадь с начала операции 167
+по пу день 71 от начала 994
+отделение 11 день 37 от начала 278
+отделение 17 день 34 от начала 167
 выравнивание под кукурузный силос
-по пу площадь за день 32 площадь с начала операции 560
-отделение 17 площадь за день 32 площадь с начала операции 241
+по пу день 32 от начала 560
+отделение 17 день 32 от начала 241
 выравнивание под кукурузное зерно
-по пу площадь за день 74 площадь с начала операции 662
-отделение 16 площадь за день 18 площадь с начала операции 18
-отделение 17 площадь за день 56 площадь с начала операции 124
+по пу день 74 от начала 662
+отделение 16 день 18 от начала 18
+отделение 17 день 56 от начала 124
 выравнивание под сою
-по пу площадь за день 133 площадь с начала операции 713
-отделение 11 площадь за день 113 площадь с начала операции 193
-отделение 16 площадь за день 20 площадь с начала операции 401
+по пу день 133 от начала 713
+отделение 11 день 113 от начала 193
+отделение 16 день 20 от начала 401
 второе выравнивание под кукурузное зерно
-отделение 17 площадь за день 56 площадь с начала операции 56</t>
+отделение 17 день 56 от начала 56</t>
         </is>
       </c>
     </row>
@@ -2059,14 +2057,14 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>выравн под кукурузный силос
-попу площадь за день 153 площадь с начала операции 822
-отделение 11 площадь за день 122 площадь с начала операции 352
-отделение 17 площадь за день 31 площадь с начала операции 300
+          <t>выравнивание под кукурузный силос
+по пу день 153 от начала 822
+отделение 11 день 122 от начала 352
+отделение 17 день 31 от начала 300
 выравнивание под сою
-попу площадь за день 73 площадь с начала операции 930
-отделение 11 площадь за день 28 площадь с начала операции 327
-отделение 17 площадь за день 45 площадь с начала операции 83</t>
+по пу день 73 от начала 930
+отделение 11 день 28 от начала 327
+отделение 17 день 45 от начала 83</t>
         </is>
       </c>
     </row>
@@ -2088,14 +2086,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>10.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 1749 площадь с начала операции 2559
-(в т.ч амазон-площадь за день 1082 площадь с начала операции 1371
-пневмоход-площадь за день 667 площадь с начала операции 1188)
-отд11- площадь за день 307 площадь с начала операции 307 (амазон площадь за день 307 площадь с начала операции 307) 
-отделение 12- площадь за день 671 площадь с начала операции 671( амазон площадь за день 318 площадь с начала операции 318; пневмоход площадь за день 353 площадь с начала операции 353) 
-отделение 16- площадь за день 462 площадь с начала операции 1272( амазон площадь за день 148 площадь с начала операции 437; пневмоход площадь за день 314 площадь с начала операции 835) 
-отделение 17- площадь за день 309 площадь с начала операции 309( амазон площадь за день 309 площадь с начала операции 309)</t>
+          <t xml:space="preserve">10.03 день
+вторая подкормка озимых, пу юг день 1749 от начала 2559
+ в т.ч амазон день 1082 от начала 1371
+пневмоход день 667 от начала 1188 
+отд11 день 307 от начала 307 амазон день 307 от начала 307 
+отделение 12 день 671 от начала 671 амазон день 318 от начала 318 пневмоход день 353 от начала 353 
+отделение 16 день 462 от начала 1272 амазон день 148 от начала 437 пневмоход день 314 от начала 835 
+отделение 17 день 309 от начала 309 амазон день 309 от начала 309 </t>
         </is>
       </c>
     </row>
@@ -2114,8 +2112,8 @@
       <c r="C50" t="inlineStr">
         <is>
           <t>16.11 мир
-пахота зяби под кукурузу 30 га день, 599 га от начала, 89%, 73 га остаток.
-пахота зяби под сою 30 га день, 879 га от начала, 77%, 260 га остаток.
+пахота зяби под кукурузу 30 день, 599 от начала, 89 , 73 остаток.
+пахота зяби под сою 30 день, 879 от начала, 77 , 260 остаток.
 работало 2 агрегата.</t>
         </is>
       </c>
@@ -2135,8 +2133,8 @@
       <c r="C51" t="inlineStr">
         <is>
           <t>17.11 мир
-пахота зяби под кукурузу 40 га день, 639 га от начала, 95%, 33 га остаток.
-пахота зяби под сою 20 га день, 899 га от начала, 79%, 240 га остаток.
+пахота зяби под кукурузу 40 день, 639 от начала, 95 , 33 остаток.
+пахота зяби под сою 20 день, 899 от начала, 79 , 240 остаток.
 работало 2 агрегата.</t>
         </is>
       </c>
@@ -2157,10 +2155,10 @@
       <c r="C52" t="inlineStr">
         <is>
           <t>18.11 мир
-пахота зяби под кукурузу 25 га день, 664 га от начала, 99%, 8 га остаток.
-пахота зяби под сою 40 га день, 939 га от начала, 83%, 200 га остаток.
+пахота зяби под кукурузу 25 день, 664 от начала, 99 , 8 остаток.
+пахота зяби под сою 40 день, 939 от начала, 83 , 200 остаток.
 работало 3 агрегата.
-выравнивание зяби под сахарную свёклу 45 га день, 952 га от начала, 100%. работал 1 агрегат</t>
+выравнивание зяби под сахарную свёклу 45 день, 952 от начала, 100 . работал 1 агрегат</t>
         </is>
       </c>
     </row>
@@ -2182,14 +2180,14 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>11.03 ночь
-вторая подкормка озимых, пу "юг" - площадь за день 2017 площадь с начала операции 4576
-(в т.ч амазон-площадь за день 1263 площадь с начала операции 2634
-пневмоход-площадь за день 754 площадь с начала операции 1942)
-отд11- площадь за день 337 площадь с начала операции 644 (амазон площадь за день 337 площадь с начала операции 644) 
-отделение 12- площадь за день 767 площадь с начала операции 1438( амазон площадь за день 284 площадь с начала операции 602; пневмоход площадь за день 483 площадь с начала операции 836) 
-отделение 16- площадь за день 493 площадь с начала операции 1765( амазон площадь за день 222 площадь с начала операции 659; пневмоход площадь за день 271 площадь с начала операции 1106) 
-отделение 17- площадь за день 420 площадь с начала операции 729( амазон площадь за день 420 площадь с начала операции 729)</t>
+          <t xml:space="preserve">11.03 ночь
+вторая подкормка озимых, пу юг день 2017 от начала 4576
+ в т.ч амазон день 1263 от начала 2634
+пневмоход день 754 от начала 1942 
+отд11 день 337 от начала 644 амазон день 337 от начала 644 
+отделение 12 день 767 от начала 1438 амазон день 284 от начала 602 пневмоход день 483 от начала 836 
+отделение 16 день 493 от начала 1765 амазон день 222 от начала 659 пневмоход день 271 от начала 1106 
+отделение 17 день 420 от начала 729 амазон день 420 от начала 729 </t>
         </is>
       </c>
     </row>
@@ -2211,14 +2209,14 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>11.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 1606 площадь с начала операции 6182
-(в т.ч амазон-площадь за день 1048 площадь с начала операции 3682
-пневмоход-площадь за день 558 площадь с начала операции 2500)
-отд11- площадь за день 486 площадь с начала операции 1130 (амазон площадь за день 356 площадь с начала операции 1000; пневмоход площадь за день 130 площадь с начала операции 130) 
-отделение 12- площадь за день 778 площадь с начала операции 2216( амазон площадь за день 350 площадь с начала операции 952; пневмоход площадь за день 428 площадь с начала операции 1264) 
-отделение 16- площадь за день 0 площадь с начала операции 1765( амазон площадь за день 0 площадь с начала операции 659; пневмоход площадь за день 0 площадь с начала операции 1106) 
-отделение 17- площадь за день 342 площадь с начала операции 1071( амазон площадь за день 342 площадь с начала операции 1071)</t>
+          <t xml:space="preserve">11.03 день
+вторая подкормка озимых, пу юг день 1606 от начала 6182
+ в т.ч амазон день 1048 от начала 3682
+пневмоход день 558 от начала 2500 
+отд11 день 486 от начала 1130 амазон день 356 от начала 1000 пневмоход день 130 от начала 130 
+отделение 12 день 778 от начала 2216 амазон день 350 от начала 952 пневмоход день 428 от начала 1264 
+отделение 16 день 0 от начала 1765 амазон день 0 от начала 659 пневмоход день 0 от начала 1106 
+отделение 17 день 342 от начала 1071 амазон день 342 от начала 1071 </t>
         </is>
       </c>
     </row>
@@ -2238,12 +2236,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>пахота под кукурузный зерно
-попу площадь за день 6 площадь с начала операции 1096
-отделение 12 площадь за день 6 площадь с начала операции 549
+          <t>пахота под кукурузы зерно
+по пу день 6 от начала 1096
+отделение 12 день 6 от начала 549
 выравнивание под сою
-попу площадь за день 45 площадь с начала операции 1106
-отделение 11 площадь за день 45 площадь с начала операции 503</t>
+по пу день 45 от начала 1106
+отделение 11 день 45 от начала 503</t>
         </is>
       </c>
     </row>
@@ -2263,12 +2261,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>12.03 день
-вторая подкормка озимых, пу "юг" - площадь за день 129 площадь с начала операции 6700
-(в т.ч амазон- площадь за день 129 площадь с начала операции 4200
-пневмоход-площадь за день 0 площадь с начала операции 2500)
-отделение 17- площадь за день 129 площадь с начала операции 1589( амазон площадь за день 129 площадь с начала операции 1589)
-вымочки попу 56 га</t>
+          <t xml:space="preserve">12.03 день
+вторая подкормка озимых, пу юг день 129 от начала 6700
+ в т.ч амазон день 129 от начала 4200
+пневмоход день 0 от начала 2500 
+отделение 17 день 129 от начала 1589 амазон день 129 от начала 1589 
+вымочки по пу 56 </t>
         </is>
       </c>
     </row>
@@ -2295,17 +2293,17 @@
       <c r="C57" t="inlineStr">
         <is>
           <t>пахота под сою
-попу площадь за день 14 площадь с начала операции 1664
-отделение 11 площадь за день 14 площадь с начала операции 897
+по пу день 14 от начала 1664
+отделение 11 день 14 от начала 897
 выравнивание под сою
-попу площадь за день 164 площадь с начала операции 1270
-отделение 11 площадь за день 95 площадь с начала операции 598
-отделение 12 площадь за день 35 площадь с начала операции 154
-отделение 17 площадь за день 34 площадь с начала операции 117
+по пу день 164 от начала 1270
+отделение 11 день 95 от начала 598
+отделение 12 день 35 от начала 154
+отделение 17 день 34 от начала 117
 предпосевная культура под сахарная свекла
-попу площадь за день 119 площадь с начала операции 119
-отделение 12 площадь за день 39 площадь с начала операции 39
-отделение 16 площадь за день 80 площадь с начала операции 80</t>
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80</t>
         </is>
       </c>
     </row>
@@ -2336,23 +2334,23 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>выравн под сою
-попу площадь за день 118 площадь с начала операции 1388
-отделение 11 площадь за день 51 площадь с начала операции 649
-отделение 12 площадь за день 67 площадь с начала операции 221
-выравнивание под кукурузный зерно
-попу площадь за день 25 площадь с начала операции 906
-отделение 12 площадь за день 25 площадь с начала операции 437
+          <t>выравнивание под сою
+по пу день 118 от начала 1388
+отделение 11 день 51 от начала 649
+отделение 12 день 67 от начала 221
+выравнивание под кукурузы зерно
+по пу день 25 от начала 906
+отделение 12 день 25 от начала 437
 предпосевная культура под сахарная свекла
-попу площадь за день 265 площадь с начала операции 384
-отделение 11 площадь за день 47 площадь с начала операции 47
-отделение 12 площадь за день 65 площадь с начала операции 104
-отделение 16 площадь за день 103 площадь с начала операции 183
-отделение 17 площадь за день 50 площадь с начала операции 50
+по пу день 265 от начала 384
+отделение 11 день 47 от начала 47
+отделение 12 день 65 от начала 104
+отделение 16 день 103 от начала 183
+отделение 17 день 50 от начала 50
 посев сахарная свеклы
-попу площадь за день 107 площадь с начала операции 107
-отделение 12 площадь за день 29 площадь с начала операции 29
-отделение 16 площадь за день 78 площадь с начала операции 78</t>
+по пу день 107 от начала 107
+отделение 12 день 29 от начала 29
+отделение 16 день 78 от начала 78</t>
         </is>
       </c>
     </row>
@@ -2374,12 +2372,12 @@
       <c r="C59" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы площадь за день 886 площадь с начала операции 10224/91%
-культура. сахарная свёкла площадь за день 551 площадь с начала операции 10793/96%
-2-подкормка озимая пшеницыплощадь за день 32231 площадь с начала операции 100%
-герб. обработка озимая пшеницы площадь за день 285 площадь с начала операции 928/3%
-пред.культ. подсол.площадь за день 32 площадь с начала операции 32
-посев подсол. площадь за день 10 площадь с начала операции 10</t>
+посев сахарная свеклы день 886 от начала 10224 91 
+культура. сахарная свёкла день 551 от начала 10793 96 
+2 подкормка озимая пшеницыдень 32231 от начала 100 
+герб. обработка озимая пшеницы день 285 от начала 928 3 
+пред.культ. подсол.день 32 от начала 32
+посев подсол. день 10 от начала 10</t>
         </is>
       </c>
     </row>
@@ -2408,21 +2406,21 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>выравн под сою
-попу площадь за день 53 площадь с начала операции 1441
-отделение 11 площадь за день 23 площадь с начала операции 672
-отделение 12 площадь за день 30 площадь с начала операции 251
-выравнивание под кукурузный силос
-попу площадь за день 6 площадь с начала операции 871
-отделение 11 площадь за день 6 площадь с начала операции 401
+          <t>выравнивание под сою
+по пу день 53 от начала 1441
+отделение 11 день 23 от начала 672
+отделение 12 день 30 от начала 251
+выравнивание под кукурузы силос
+по пу день 6 от начала 871
+отделение 11 день 6 от начала 401
 предпосевная культура под сахарная свекла
-попу площадь за день 22 площадь с начала операции 406
-отделение 11 площадь за день 20 площадь с начала операции 67
-отделение 12 площадь за день 2 площадь с начала операции 106
+по пу день 22 от начала 406
+отделение 11 день 20 от начала 67
+отделение 12 день 2 от начала 106
 посев сахарная свекла
-попу площадь за день 15 площадь с начала операции 122
-отделение 11 площадь за день 5 площадь с начала операции 5
-отделение 16 площадь за день 10 площадь с начала операции 88</t>
+по пу день 15 от начала 122
+отделение 11 день 5 от начала 5
+отделение 16 день 10 от начала 88</t>
         </is>
       </c>
     </row>
@@ -2455,25 +2453,25 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>выравн под куклы зерно
-попу площадь за день 54 площадь с начала операции 960
-отделение 11 площадь за день 24 площадь с начала операции 166
-отделение 12 площадь за день 30 площадь с начала операции 467
-выравнивание под кукурузный силос
-попу площадь за день 6 площадь с начала операции 877
-отделение 11 площадь за день 6 площадь с начала операции 407
+          <t>выравнивание под куклы зерно
+по пу день 54 от начала 960
+отделение 11 день 24 от начала 166
+отделение 12 день 30 от начала 467
+выравнивание под кукурузы силос
+по пу день 6 от начала 877
+отделение 11 день 6 от начала 407
 предпосевная культура под сахарная свекла
-попу площадь за день 247 площадь с начала операции 653
-отделение 11 площадь за день 27 площадь с начала операции 94
-отделение 12 площадь за день 101 площадь с начала операции 207
-отделение 16 площадь за день 64 площадь с начала операции 247
-отделение 17 площадь за день 55 площадь с начала операции 105
+по пу день 247 от начала 653
+отделение 11 день 27 от начала 94
+отделение 12 день 101 от начала 207
+отделение 16 день 64 от начала 247
+отделение 17 день 55 от начала 105
 посев сахарная свекла
-попу площадь за день 100 площадь с начала операции 222
-отделение 11 площадь за день 12 площадь с начала операции 17
-отделение 12 площадь за день 16 площадь с начала операции 45
-отделение 16 площадь за день 62 площадь с начала операции 150
-отделение 17 площадь за день 10 площадь с начала операции 10</t>
+по пу день 100 от начала 222
+отделение 11 день 12 от начала 17
+отделение 12 день 16 от начала 45
+отделение 16 день 62 от начала 150
+отделение 17 день 10 от начала 10</t>
         </is>
       </c>
     </row>
@@ -2500,19 +2498,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>восход
+          <t xml:space="preserve">восход
 посев кукурузы
-день-площадь за день 86 площадь с начала операции 107га, 10%
+день день 86 от начала 107га, 10 
 предпосевная культура
-день-площадь за день 177 площадь с начала операции 396га, 37%
+день день 177 от начала 396га, 37 
 вторая подкорм озимая пшеница
-день-площадь за день 739 площадь с начала операции 1431га65%
+день день 739 от начала 1431га65 
 срадство защиты растений по озимая пшеница
-день-площадь за день 136 площадь с начала операции 272га12%
+день день 136 от начала 272га12 
 срадство защиты растений по озимая ячмень
-день-площадь за день 71 площадь с начала операции 71га22%
+день день 71 от начала 71га22 
 довсходовое боронование подсолнечника
-день-площадь за день 184 площадь с начала операции 289га55%</t>
+день день 184 от начала 289га55 </t>
         </is>
       </c>
     </row>
@@ -2544,24 +2542,24 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>выравн под кукурузный зерно
-попу площадь за день 82 площадь с начала операции 1042
-отделение 12 площадь за день 82 площадь с начала операции 549
-выравнивание под кукурузный силос
-попу площадь за день 30 площадь с начала операции 907
-отделение 11 площадь за день 30 площадь с начала операции 437
+          <t>выравнивание под кукурузы зерно
+по пу день 82 от начала 1042
+отделение 12 день 82 от начала 549
+выравнивание под кукурузы силос
+по пу день 30 от начала 907
+отделение 11 день 30 от начала 437
 предпосевная культура под сахарная свекла
-попу площадь за день 531 площадь с начала операции 1184
-отделение 11 площадь за день 80 площадь с начала операции 174
-отделение 12 площадь за день 260 площадь с начала операции 467
-отделение 16 площадь за день 101 площадь с начала операции 348
-отделение 17 площадь за день 90 площадь с начала операции 195
+по пу день 531 от начала 1184
+отделение 11 день 80 от начала 174
+отделение 12 день 260 от начала 467
+отделение 16 день 101 от начала 348
+отделение 17 день 90 от начала 195
 посев сахарная свекла
-попу площадь за день 357 площадь с начала операции 579
-отделение 11 площадь за день 80 площадь с начала операции 97
-отделение 12 площадь за день 85 площадь с начала операции 130
-отделение 16 площадь за день 81 площадь с начала операции 231
-отделение 17 площадь за день 111 площадь с начала операции 121</t>
+по пу день 357 от начала 579
+отделение 11 день 80 от начала 97
+отделение 12 день 85 от начала 130
+отделение 16 день 81 от начала 231
+отделение 17 день 111 от начала 121</t>
         </is>
       </c>
     </row>
@@ -2590,21 +2588,21 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>выравн под кукурузный силос
-попу площадь за день 25 площадь с начала операции 932
-отделение 11 площадь за день 25 площадь с начала операции 462
+          <t>выравнивание под кукурузы силос
+по пу день 25 от начала 932
+отделение 11 день 25 от начала 462
 предпосевная культура под сахарная свекла
-попу площадь за день 452 площадь с начала операции 1636
-отделение 11 площадь за день 78 площадь с начала операции 252
-отделение 12 площадь за день 143 площадь с начала операции 610
-отделение 16 площадь за день 121 площадь с начала операции 469 5га вымочки
-отделение 17 площадь за день 110 площадь с начала операции 305
+по пу день 452 от начала 1636
+отделение 11 день 78 от начала 252
+отделение 12 день 143 от начала 610
+отделение 16 день 121 от начала 469 5га вымочки
+отделение 17 день 110 от начала 305
 посев сахарная свекла
-попу площадь за день 403 площадь с начала операции 982
-отделение 11 площадь за день 73 площадь с начала операции 170
-отделение 12 площадь за день 139 площадь с начала операции 269
-отделение 16 площадь за день 65 площадь с начала операции 296
-отделение 17 площадь за день 126 площадь с начала операции 247</t>
+по пу день 403 от начала 982
+отделение 11 день 73 от начала 170
+отделение 12 день 139 от начала 269
+отделение 16 день 65 от начала 296
+отделение 17 день 126 от начала 247</t>
         </is>
       </c>
     </row>
@@ -2627,15 +2625,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>предп культура под сахарная свекла
-попу площадь за день 211 площадь с начала операции 1847
-отделение 11 площадь за день 81 площадь с начала операции 333
-отделение 17 площадь за день 130 площадь с начала операции 435
+          <t>предпосевная культура под сахарная свекла
+по пу день 211 от начала 1847
+отделение 11 день 81 от начала 333
+отделение 17 день 130 от начала 435
 посев сахарная свекла
-попу площадь за день 268 площадь с начала операции 1250
-отделение 11 площадь за день 100 площадь с начала операции 270
-отделение 12 площадь за день 36 площадь с начала операции 305
-отделение 17 площадь за день 132 площадь с начала операции 379</t>
+по пу день 268 от начала 1250
+отделение 11 день 100 от начала 270
+отделение 12 день 36 от начала 305
+отделение 17 день 132 от начала 379</t>
         </is>
       </c>
     </row>
@@ -2665,22 +2663,22 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>вырав под кукурузный зерно
-попу площадь за день 51 площадь с начала операции 1093
-отделение 11 площадь за день 51 площадь с начала операции 217
+          <t>выравнивание под кукурузы зерно
+по пу день 51 от начала 1093
+отделение 11 день 51 от начала 217
 предпосевная культура под сахарная свекла
-попу площадь за день 288 площадь с начала операции 2135
-отделение 11 площадь за день 78 площадь с начала операции 411
-отделение 12 площадь за день 87 площадь с начала операции 697
-отделение 17 площадь за день 123 площадь с начала операции 558
+по пу день 288 от начала 2135
+отделение 11 день 78 от начала 411
+отделение 12 день 87 от начала 697
+отделение 17 день 123 от начала 558
 посев сахарная свекла
-попу площадь за день 398 площадь с начала операции 1648
-отделение 11 площадь за день 89 площадь с начала операции 359
-отделение 12 площадь за день 98 площадь с начала операции 403
-отделение 16 площадь за день 84 площадь с начала операции 380
-отделение 17 площадь за день 127 площадь с начала операции 506
+по пу день 398 от начала 1648
+отделение 11 день 89 от начала 359
+отделение 12 день 98 от начала 403
+отделение 16 день 84 от начала 380
+отделение 17 день 127 от начала 506
 внесен кас под озимая пшеница
-отделение 16 площадь за день 63 площадь с начала операции 63</t>
+отделение 16 день 63 от начала 63</t>
         </is>
       </c>
     </row>
@@ -2708,20 +2706,20 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>вырав под сою
-попу площадь за день 16 площадь с начала операции 1457
-отделение 11 площадь за день 16 площадь с начала операции 688
+          <t>выравнивание под сою
+по пу день 16 от начала 1457
+отделение 11 день 16 от начала 688
 предпосевная культура под сахарная свекла
-попу площадь за день 152 площадь с начала операции 2287
-отделение 11 площадь за день 72 площадь с начала операции 483
-отделение 12 площадь за день 50 площадь с начала операции 747
-отделение 17 площадь за день 30 площадь с начала операции 588
+по пу день 152 от начала 2287
+отделение 11 день 72 от начала 483
+отделение 12 день 50 от начала 747
+отделение 17 день 30 от начала 588
 посев сахарная свекла
-попу площадь за день 284 площадь с начала операции 1932
-отделение 11 площадь за день 42 площадь с начала операции 401
-отделение 12 площадь за день 123 площадь с начала операции 526
-отделение 16 площадь за день 89 площадь с начала операции 469 5га вымочки
-отделение 17 площадь за день 30 площадь с начала операции 536</t>
+по пу день 284 от начала 1932
+отделение 11 день 42 от начала 401
+отделение 12 день 123 от начала 526
+отделение 16 день 89 от начала 469 5га вымочки
+отделение 17 день 30 от начала 536</t>
         </is>
       </c>
     </row>
@@ -2737,8 +2735,8 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 99 площадь с начала операции 162
-отделение 16-площадь за день 99 площадь с начала операции 162</t>
+          <t>подкормка кас 32 по оз.пшенице пу юг день 99 от начала 162
+отделение 16 день 99 от начала 162</t>
         </is>
       </c>
     </row>
@@ -2758,9 +2756,9 @@
       <c r="C69" t="inlineStr">
         <is>
           <t>30.03.25г мир.
-предпосевная культивация под подсолнечник площадь за день 50 площадь с начала операции 97/609 - 14%
-посев подсолнечника площадь за день 17 площадь с начала операции 47/659 - 6%
-вторая подкормка озимой пшеницы площадь за день 371 площадь с начала операции 5118/166 - 97%
+предпосевная культивация под подсолнечник день 50 от начала 97 609 14 
+посев подсолнечника день 17 от начала 47 659 6 
+вторая подкормка озимой пшеницы день 371 от начала 5118 166 97 
 на данный момент осадки в 2х районах до 3мм</t>
         </is>
       </c>
@@ -2784,11 +2782,11 @@
         <is>
           <t>ао кропоткинское
 30.03.2024
-2 подкормка озимой пшеницы площадь за день 504 площадь с начала операции 7758
-посев сах.свеклы площадь за день 241 площадь с начала операции 1806 87% (7ед)
+2 подкормка озимой пшеницы день 504 от начала 7758
+посев сах.свеклы день 241 от начала 1806 87 7ед 
 осталось 335га
-выравнивание зяби под кукурузу площадь за день 70 площадь с начала операции 2874
-предпосевная культивация под подсолнечник площадь за день 70 площадь с начала операции 70</t>
+выравнивание зяби под кукурузу день 70 от начала 2874
+предпосевная культивация под подсолнечник день 70 от начала 70</t>
         </is>
       </c>
     </row>
@@ -2808,10 +2806,10 @@
       <c r="C71" t="inlineStr">
         <is>
           <t>27.07
-внесение минеральные удобрений под сахарная свёклу 2025 г пу юг- площадь за день 454 площадь с начала операции 1715
-отделение 11-площадь за день 102 площадь с начала операции 209
-отделение 12-площадь за день 175 площадь с начала операции 593
-отделение 17-площадь за день 177 площадь с начала операции 260</t>
+внесение минеральные удобрений под сахарная свёклу 2025 г пу юг день 454 от начала 1715
+отделение 11 день 102 от начала 209
+отделение 12 день 175 от начала 593
+отделение 17 день 177 от начала 260</t>
         </is>
       </c>
     </row>
@@ -2848,27 +2846,27 @@
       <c r="C72" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу площадь за день 50 площадь с начала операции 379
-отделение 12 площадь за день 36 площадь с начала операции 240
-отделение 16 площадь за день 14 площадь с начала операции 79
+по пу день 50 от начала 379
+отделение 12 день 36 от начала 240
+отделение 16 день 14 от начала 79
 чизлование под озимая ячмень
-по пу площадь за день 60 площадь с начала операции 588
-отделение 11 площадь за день 60 площадь с начала операции 190
+по пу день 60 от начала 588
+отделение 11 день 60 от начала 190
 второе дискование под сахарная свекла
-по пу площадь за день 130 площадь с начала операции 1393
-отделение 17 площадь за день 130 площадь с начала операции 130
-дискование кукурузный силос
-по пу площадь за день 207 площадь с начала операции 857
-отделение 11 площадь за день 66 площадь с начала операции 199
-отделение 12 площадь за день 141 площадь с начала операции 289 
+по пу день 130 от начала 1393
+отделение 17 день 130 от начала 130
+дискование кукурузы силос
+по пу день 207 от начала 857
+отделение 11 день 66 от начала 199
+отделение 12 день 141 от начала 289 
 дискование озимая пшеницы 
-по пу площадь за день 57 площадь с начала операции 8743
-отделение 17 площадь за день 57 площадь с начала операции 1999
+по пу день 57 от начала 8743
+отделение 17 день 57 от начала 1999
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 2 площадь с начала операции 24
+отделение 12 день 2 от начала 24
 прикат под озимая ячмень
-по пу площадь за день 60 площадь с начала операции 458
-отделение 11 площадь за день 60 площадь с начала операции 60</t>
+по пу день 60 от начала 458
+отделение 11 день 60 от начала 60</t>
         </is>
       </c>
     </row>
@@ -2905,29 +2903,29 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>пу «юг» 2.03
+          <t>пу юг 2.03
 выравнивание зяби под сахарная свекла
-по пу площадь за день 105 площадь с начала операции 2527
-отделение 11 площадь за день 30 площадь с начала операции 674
-отделение 17 площадь за день 75 площадь с начала операции 588
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
 выравнивание зяби под кукурузное зерно 
-по пу площадь за день 40 площадь с начала операции 571
-отделение 12 площадь за день 40 площадь с начала операции 412
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
 выравнивание зяби по кукурузный силос
-по пу площадь за день 62 площадь с начала операции 232
-отделение 11 площадь за день 23 площадь с начала операции 23
-отделение 17 площадь за день 39 площадь с начала операции 39
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
 выравнивание зяби под сою 
-по пу площадь за день 72 площадь с начала операции 354
-отделение 16 площадь за день 72 площадь с начала операции 289
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
 посев овса 
-по пу площадь за день 5 площадь с начала операции 5
-отделение 11 площадь за день 5 площадь с начала операции 5
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
 прокатывание посевов овса 
-по пу площадь за день 5 площадь с начала операции 5
-отделение площадь за день 5 площадь с начала операции 5
-1-я затравка мыш грызунов по озимым кол. пу"юг" -площадь за день 100 площадь с начала операции 8804, ,12 человек
-отделение 16-площадь за день 100 площадь с начала операции 2194</t>
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+1 я затравка мыш грызунов по озимым кол. пу юг день 100 от начала 8804, ,12 человек
+отделение 16 день 100 от начала 2194</t>
         </is>
       </c>
     </row>
@@ -2950,15 +2948,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>восход
-посев кук-площадь за день 121 площадь с начала операции 228га
- 22%
-вторая подкормка озимая пш-2200га, 100%
-срадство защиты растений озимая пш-площадь за день 182 площадь с начала операции 454га, 21%
-срадство защиты растений озимая яч-площадь за день 97 площадь с начала операции 168га
-53%
+          <t xml:space="preserve">восход
+посев кук день 121 от начала 228га
+ 22 
+вторая подкормка озимая пш 2200га, 100 
+срадство защиты растений озимая пш день 182 от начала 454га, 21 
+срадство защиты растений озимая яч день 97 от начала 168га
+53 
 довсходовое боронование подсолнечника
-площадь за день 175 площадь с начала операции 464га, 89%</t>
+день 175 от начала 464га, 89 </t>
         </is>
       </c>
     </row>
@@ -2985,19 +2983,19 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>вырав под сою
-попу площадь за день 24 площадь с начала операции 1481
-отделение 11 площадь за день 24 площадь с начала операции 712
+          <t>выравнивание под сою
+по пу день 24 от начала 1481
+отделение 11 день 24 от начала 712
 предпосевная культура под сахарная свекла
-попу площадь за день 369 площадь с начала операции 2656
-отделение 11 площадь за день 156 площадь с начала операции 639
-отделение 12 площадь за день 48 площадь с начала операции 795
-отделение 17 площадь за день 163 площадь с начала операции 751
+по пу день 369 от начала 2656
+отделение 11 день 156 от начала 639
+отделение 12 день 48 от начала 795
+отделение 17 день 163 от начала 751
 посев сахарная свекла
-попу площадь за день 355 площадь с начала операции 2287
-отделение 11 площадь за день 80 площадь с начала операции 481
-отделение 12 площадь за день 133 площадь с начала операции 659
-отделение 17 площадь за день 142 площадь с начала операции 678</t>
+по пу день 355 от начала 2287
+отделение 11 день 80 от начала 481
+отделение 12 день 133 от начала 659
+отделение 17 день 142 от начала 678</t>
         </is>
       </c>
     </row>
@@ -3015,10 +3013,10 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>22.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 320 площадь с начала операции 474
-отделение 11-площадь за день 95 площадь с начала операции 174
-отделение 12-площадь за день 150 площадь с начала операции 150
-отделение 16-площадь за день 75 площадь с начала операции 150</t>
+          <t>22.03 внесение гербицидов по оз.рапсу пу юг день 320 от начала 474
+отделение 11 день 95 от начала 174
+отделение 12 день 150 от начала 150
+отделение 16 день 75 от начала 150</t>
         </is>
       </c>
     </row>
@@ -3035,9 +3033,9 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>подкормка кас-32 по оз.пшенице пу"юг"- площадь за день 400 площадь с начала операции 562
-отделение 12-площадь за день 241 площадь с начала операции 241
-отделение 16-площадь за день 159 площадь с начала операции 321</t>
+          <t>подкормка кас 32 по оз.пшенице пу юг день 400 от начала 562
+отделение 12 день 241 от начала 241
+отделение 16 день 159 от начала 321</t>
         </is>
       </c>
     </row>
@@ -3062,17 +3060,17 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>выравн под сою
-по пу площадь за день 16 площадь с начала операции 1497
-отделение 11 площадь за день 16 площадь с начала операции 728
+          <t>выравнивание под сою
+по пу день 16 от начала 1497
+отделение 11 день 16 от начала 728
 предпосевная культура под сахарная свекла
-попу площадь за день 50 площадь с начала операции 2706
-отделение 11 площадь за день 50 площадь с начала операции 689
+по пу день 50 от начала 2706
+отделение 11 день 50 от начала 689
 посев сахарная свекла
-попу площадь за день 91 площадь с начала операции 2378
-отделение 11 площадь за день 21 площадь с начала операции 502
-отделение 12 площадь за день 45 площадь с начала операции 704
-отделение 17 площадь за день 25 площадь с начала операции 703</t>
+по пу день 91 от начала 2378
+отделение 11 день 21 от начала 502
+отделение 12 день 45 от начала 704
+отделение 17 день 25 от начала 703</t>
         </is>
       </c>
     </row>
@@ -3088,8 +3086,8 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>23.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 71 площадь с начала операции 545
-отделение 11-площадь за день 71 площадь с начала операции 245</t>
+          <t>23.03 внесение гербицидов по оз.рапсу пу юг день 71 от начала 545
+отделение 11 день 71 от начала 245</t>
         </is>
       </c>
     </row>
@@ -3117,20 +3115,20 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>выравн зяби под сою
-попу площадь за день 18 площадь с начала операции 1515
-отделение 11 площадь за день 18 площадь с начала операции 746
+          <t>выравнивание зяби под сою
+по пу день 18 от начала 1515
+отделение 11 день 18 от начала 746
 предпосевная культура под сахарная свекла
-попу 175//2881
-отделение 11 площадь за день 45 площадь с начала операции 734
-отделение 17 площадь за день 130 площадь с начала операции 881
+по пу 175 2881
+отделение 11 день 45 от начала 734
+отделение 17 день 130 от начала 881
 посев сахарная свекла
-попу площадь за день 333 площадь с начала операции 2711
-отделение 11 площадь за день 113 площадь с начала операции 615
-отделение 12 площадь за день 91 площадь с начала операции 795
-отделение 17 площадь за день 129 площадь с начала операции 832
+по пу день 333 от начала 2711
+отделение 11 день 113 от начала 615
+отделение 12 день 91 от начала 795
+отделение 17 день 129 от начала 832
 предпосевная культура под подсо
-отделение 16 площадь за день 90 площадь с начала операции 90</t>
+отделение 16 день 90 от начала 90</t>
         </is>
       </c>
     </row>
@@ -3149,11 +3147,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>24.03 внесение гербицидов по оз.рапсу пу"юг"- площадь за день 445 площадь с начала операции 990
-отделение 11-площадь за день 138 площадь с начала операции 383
-отделение 12-площадь за день 110 площадь с начала операции 260
-отделение 16-площадь за день 97 площадь с начала операции 247
-отделение 17-площадь за день 100 площадь с начала операции 100</t>
+          <t>24.03 внесение гербицидов по оз.рапсу пу юг день 445 от начала 990
+отделение 11 день 138 от начала 383
+отделение 12 день 110 от начала 260
+отделение 16 день 97 от начала 247
+отделение 17 день 100 от начала 100</t>
         </is>
       </c>
     </row>
@@ -3181,18 +3179,18 @@
       <c r="C82" t="inlineStr">
         <is>
           <t>уборка свеклы 27.10.день
-отд10-площадь за день 45 площадь с начала операции 216
-по пу площадь за день 45 площадь с начала операции 1569
-валовый площадь за день 1259680 площадь с начала операции 6660630
-урожайность 279,площадь за день 9 площадь с начала операции 308,3
-по пу площадь за день 1259680 площадь с начала операции 41630600
-на завод площадь за день 1811630 площадь с начала операции 6430580
-по пу площадь за день 1811630 площадь с начала операции 41400550
+отд10 день 45 от начала 216
+по пу день 45 от начала 1569
+валовый день 1259680 от начала 6660630
+урожайность 279,день 9 от начала 308,3
+по пу день 1259680 от начала 41630600
+на завод день 1811630 от начала 6430580
+по пу день 1811630 от начала 41400550
 положено в кагат 399400
 вввезено с кагата 951340
 остаток 230060
-оз-9,площадь за день 04 площадь с начала операции 12,58
-дигестия-14,площадь за день 50 площадь с начала операции 15,05</t>
+оз 9,день 04 от начала 12,58
+дигестия 14,день 50 от начала 15,05</t>
         </is>
       </c>
     </row>
@@ -3235,31 +3233,31 @@
       <c r="C83" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу площадь за день 77 площадь с начала операции 518
-отделение 12 площадь за день 46 площадь с начала операции 298
-отделение 16 площадь за день 21 площадь с начала операции 143
-отделение 17 площадь за день 10 площадь с начала операции 17
+по пу день 77 от начала 518
+отделение 12 день 46 от начала 298
+отделение 16 день 21 от начала 143
+отделение 17 день 10 от начала 17
 чизлование под озимая ячмень 
-по пу площадь за день 22 площадь с начала операции 640
-отделение 11 площадь за день 22 площадь с начала операции 242
+по пу день 22 от начала 640
+отделение 11 день 22 от начала 242
 чизлование под озимая зел корм
-отделение 11 площадь за день 40 площадь с начала операции 40
+отделение 11 день 40 от начала 40
 дискование озимая пшеницы
-по пу площадь за день 28 площадь с начала операции 8872
-отделение 17 площадь за день 28 площадь с начала операции 2097
+по пу день 28 от начала 8872
+отделение 17 день 28 от начала 2097
 второе дискование под сахарная свекла
-по пу площадь за день 189 площадь с начала операции 1763
-отделение 11 площадь за день 60 площадь с начала операции 209
-отделение 12 площадь за день 122 площадь с начала операции 540
-отделение 17 площадь за день 7 площадь с начала операции 172
-дискование кукурузный силос
-по пу площадь за день 6 площадь с начала операции 904
-отделение 11 площадь за день 6 площадь с начала операции 229
-прик под озимая ячмень
-по пу площадь за день 40 площадь с начала операции 498
-отделение 11 площадь за день 40 площадь с начала операции 100
-уборка сои (семенной)
-отделение 11 площадь за день 65 площадь с начала операции 65
+по пу день 189 от начала 1763
+отделение 11 день 60 от начала 209
+отделение 12 день 122 от начала 540
+отделение 17 день 7 от начала 172
+дискование кукурузы силос
+по пу день 6 от начала 904
+отделение 11 день 6 от начала 229
+прикат под озимая ячмень
+по пу день 40 от начала 498
+отделение 11 день 40 от начала 100
+уборка сои семенной 
+отделение 11 день 65 от начала 65
 валовый 58720
 урожайность 9</t>
         </is>
@@ -3305,34 +3303,34 @@
       <c r="C84" t="inlineStr">
         <is>
           <t>пахота под сахарная свекла
-по пу площадь за день 88 площадь с начала операции 329
-отделение 11 площадь за день 23 площадь с начала операции 60
-отделение 12 площадь за день 34 площадь с начала операции 204
-отделение 16 площадь за день 31 площадь с начала операции 65
+по пу день 88 от начала 329
+отделение 11 день 23 от начала 60
+отделение 12 день 34 от начала 204
+отделение 16 день 31 от начала 65
 пахота под многолетние травы
-по пу площадь за день 10 площадь с начала операции 438
-отделение 17 площадь за день 10 площадь с начала операции 80
+по пу день 10 от начала 438
+отделение 17 день 10 от начала 80
 чизлование под озимая ячмень
-по пу площадь за день 71 площадь с начала операции 528
-отделение 11 площадь за день 71 площадь с начала операции 130
+по пу день 71 от начала 528
+отделение 11 день 71 от начала 130
 второе дискование под сахарная свекла
-по пу площадь за день 80 площадь с начала операции 1263
-отделение 12 площадь за день 80 площадь с начала операции 314
+по пу день 80 от начала 1263
+отделение 12 день 80 от начала 314
 второе дискование под озимая ячмень
-по пу площадь за день 97 площадь с начала операции 819
-отделение 17 площадь за день 97 площадь с начала операции 179
-дискование кукурузный силос
-по пу площадь за день 43 площадь с начала операции 650
-отделение 11 площадь за день 33 площадь с начала операции 133
-отделение 12 площадь за день 10 площадь с начала операции 148
+по пу день 97 от начала 819
+отделение 17 день 97 от начала 179
+дискование кукурузы силос
+по пу день 43 от начала 650
+отделение 11 день 33 от начала 133
+отделение 12 день 10 от начала 148
 выкашивание отцовские травы формирование подготовка грунта
-отделение 12 площадь за день 10 площадь с начала операции 22
+отделение 12 день 10 от начала 22
 уборка сахарная свекла
-отделение 12 площадь за день 16 площадь с начала операции 16
+отделение 12 день 16 от начала 16
 валовый 473920
 урожайность 296,2
-диг - 19,19
-озимая - 5,33</t>
+дигестия 19,19
+озимая 5,33</t>
         </is>
       </c>
     </row>
@@ -3358,16 +3356,16 @@
       <c r="C85" t="inlineStr">
         <is>
           <t>восход
-посев кук-площадь за день 24 площадь с начала операции 252га
-24%
+посев кук день 24 от начала 252га
+24 
 предпосевная культура
-под кук-площадь за день 94 площадь с начала операции 490га46%
-сзроз пш-площадь за день 103 площадь с начала операции 557га
-25%
-подкормка озимая рапс-
-152га , 100%, подкормка овса-97га, 50%
-довсходовое боронование подсолнечника-524
-га, 100%.</t>
+под кук день 94 от начала 490га46 
+срез роз пш день 103 от начала 557га
+25 
+подкормка озимая рапс 
+152га , 100 , подкормка овса 97га, 50 
+довсходовое боронование подсолнечника 524
+га, 100 .</t>
         </is>
       </c>
     </row>
@@ -3386,8 +3384,8 @@
       <c r="C86" t="inlineStr">
         <is>
           <t>тск
-выравнивание зяби под сою 25 га/ с нарастающим 765 га ( 13%) остаток 5332 га
-выравнивание зяби под кукурузу 131га (3%) остаток 4486 га
+выравнивание зяби под сою 25 с нарастающим 765 13 остаток 5332 
+выравнивание зяби под кукурузу 131га 3 остаток 4486 
 осадки 1мм</t>
         </is>
       </c>
@@ -3409,11 +3407,11 @@
       <c r="C87" t="inlineStr">
         <is>
           <t>20.11 мир
-пахота зяби под сою 100 га день, 1109 га от начала, 97%, 30 га остаток.
+пахота зяби под сою 100 день, 1109 от начала, 97 , 30 остаток.
 работало 4 агрегата.
-выравнивание зяби под подсолнечник 47 га день, 141 га от начала, 29 %, остаток 565 га. работал 1 агрегат
-осадки:
-бригада 1 воронежская - 6 мм</t>
+выравнивание зяби под подсолнечник 47 день, 141 от начала, 29 , остаток 565 . работал 1 агрегат
+осадки 
+бригада 1 воронежская 6 мм</t>
         </is>
       </c>
     </row>
@@ -3436,11 +3434,11 @@
         <is>
           <t>ао кропоткинское
 26.03.25
-2 подкормка озимой пшеницы - площадь за день 862 площадь с начала операции 5519
-предпосевная культивация под сах.свеклу - площадь за день 274 площадь с начала операции 896
-посев сах.свеклы - площадь за день 276 площадь с начала операции 666 (31%) 7ед.
+2 подкормка озимой пшеницы день 862 от начала 5519
+предпосевная культивация под сахарную свеклу день 274 от начала 896
+посев сах.свеклы день 276 от начала 666 31 7ед.
 осталось 1475га
-выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2348</t>
+выравнивание зяби под кукурузу день 295 от начала 2348</t>
         </is>
       </c>
     </row>
@@ -3465,13 +3463,13 @@
         <is>
           <t>восход
 посев подсолнечника
-день-149га
-всего-351га,67%
+день 149га
+всего 351га,67 
 химпрополка рапса
-152га, 100%
+152га, 100 
 первая культивация
-зябис день-180га
-всего-1430га, 76,2%.</t>
+зябис день 180га
+всего 1430га, 76,2 .</t>
         </is>
       </c>
     </row>
@@ -3494,11 +3492,11 @@
         <is>
           <t>восход
 посев подсолнечника
-день-145га, всего-496га,95%
+день 145га, всего 496га,95 
 вторая подкормка озимая
-пш-218га, 10%.
-1-я культивация зяби день-196га,
-всего-1626га, 86%.</t>
+пш 218га, 10 .
+1 я культивация зяби день 196га,
+всего 1626га, 86 .</t>
         </is>
       </c>
     </row>
@@ -3520,12 +3518,12 @@
       <c r="C91" t="inlineStr">
         <is>
           <t>27.03.25 мир.
-выравнивание зяби под сою площадь за день 53 площадь с начала операции 1153/20 - 98%
-сплошная культивация под сою площадь за день 50 площадь с начала операции 140/447 - 24%
-предпосевная культивация под сахарную свеклу площадь за день 85 площадь с начала операции 702/246 - 74%
-посев сахарной свеклы площадь за день 135 площадь с начала операции 655/293 - 69%
-вторая подкормка озимой пшеницы площадь за день 1047 площадь с начала операции 2205/3079 - 42%
-на севе работало 5 ед</t>
+выравнивание зяби под сою день 53 от начала 1153 20 98 
+сплошная культивация под сою день 50 от начала 140 447 24 
+предпосевная культивация под сахарную свеклу день 85 от начала 702 246 74 
+посев сахарной свеклы день 135 от начала 655 293 69 
+вторая подкормка озимой пшеницы день 1047 от начала 2205 3079 42 
+на север работало 5 ед</t>
         </is>
       </c>
     </row>
@@ -3557,24 +3555,24 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>27.03.25г.
+          <t xml:space="preserve">27.03.25г.
 сп коломейцево
-предпосевная культивация  
- -под сахарную свеклу: 
-   день 19га
-  от начала 314га(100%)
-  -под подсолнечник
-    день 20га
-    от начала 20га(10%)
-посев сахарной свеклы: 
+предпосевная культивация 
+ под сахарную свеклу 
+ день 19га
+ от начала 314га 100 
+ под подсолнечник
+ день 20га
+ от начала 20га 10 
+посев сахарной свеклы 
 день 30га
-от начала 265га(84%)
- внесение минеральных удобрений по озимой пшенице,2 след: 
+от начала 265га 84 
+ внесение минеральных удобрений по озимой пшенице,2 след 
 день 139га
-от начала 1015га(100%)
-сплошная культивация под сою:
-  день 51га 
-  от начала 145га (71%)</t>
+от начала 1015га 100 
+сплошная культивация под сою 
+ день 51га 
+ от начала 145га 71 </t>
         </is>
       </c>
     </row>
@@ -3597,11 +3595,11 @@
         <is>
           <t>ао кропоткинское
 27.03.25
-2 подкормка озимой пшеницы - площадь за день 834 площадь с начала операции 6353
-предпосевная культивация под сах.свеклу - площадь за день 306 площадь с начала операции 1202
-посев сах.свеклы - площадь за день 278 площадь с начала операции 944 (44%) 7ед.
+2 подкормка озимой пшеницы день 834 от начала 6353
+предпосевная культивация под сахарную свеклу день 306 от начала 1202
+посев сах.свеклы день 278 от начала 944 44 7ед.
 осталось 1197га
-выравнивание зяби под кукурузу - площадь за день 295 площадь с начала операции 2643</t>
+выравнивание зяби под кукурузу день 295 от начала 2643</t>
         </is>
       </c>
     </row>
@@ -3619,10 +3617,10 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>рассвет
-посев сахарная свеклы площадь за день 1139 площадь с начала операции 8218/73%
-культура. сахарная свёкла площадь за день 1225 площадь с начала операции 9228/82%
-2-подкормка озимая пшеницыплощадь за день 1898 площадь с начала операции 30547/95%</t>
+          <t xml:space="preserve">рассвет
+посев сахарная свеклы день 1139 от начала 8218 73 
+культура. сахарная свёкла день 1225 от начала 9228 82 
+2 подкормка озимая пшеницыдень 1898 от начала 30547 95 </t>
         </is>
       </c>
     </row>
@@ -3640,10 +3638,10 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>восход
+          <t xml:space="preserve">восход
 посев подсолнечника
-день-28
-всего-524га, 100%</t>
+день 28
+всего 524га, 100 </t>
         </is>
       </c>
     </row>
@@ -3658,7 +3656,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>колхоз прогресс: химпрополка оз.пшеницы за день 185 га , всего 185 га (13%), остаток 1212 га</t>
+          <t xml:space="preserve">колхоз прогресс химпрополка оз.пшеницы за день 185 , всего 185 13 , остаток 1212 </t>
         </is>
       </c>
     </row>
@@ -3678,10 +3676,10 @@
       <c r="C97" t="inlineStr">
         <is>
           <t>28.03.25 мир.
-предпосевная культивация под сахарную свеклу площадь за день 178 площадь с начала операции 880/68
-посев сахарной свеклы площадь за день 150 площадь с начала операции 805/143
-вторая подкормка озимой пшеницы площадь за день 995 площадь с начала операции 3200/2084
-на севе работало 5 ед.</t>
+предпосевная культивация под сахарную свеклу день 178 от начала 880 68
+посев сахарной свеклы день 150 от начала 805 143
+вторая подкормка озимой пшеницы день 995 от начала 3200 2084
+на север работало 5 ед.</t>
         </is>
       </c>
     </row>
@@ -3710,21 +3708,21 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>28.03.25г.
+          <t xml:space="preserve">28.03.25г.
 сп коломейцево
-предпосевная культивация  
-  -под подсолнечник
-    день 40га
-    от начала 60га(29%)
-посев сахарной свеклы: 
+предпосевная культивация 
+ под подсолнечник
+ день 40га
+ от начала 60га 29 
+посев сахарной свеклы 
 день 30га
-от начала 295га(94%)
+от начала 295га 94 
 посев подсолнечника 
-  день 25га
-  от начала 25га(12%)
-сплошная культивация под сою:
-  день 55га 
-  от начала 200га (80%)</t>
+ день 25га
+ от начала 25га 12 
+сплошная культивация под сою 
+ день 55га 
+ от начала 200га 80 </t>
         </is>
       </c>
     </row>
@@ -3747,11 +3745,11 @@
         <is>
           <t>ао кропоткинское
 28.03.25
-2 подкормка озимой пшеницы - площадь за день 622 площадь с начала операции 6975
-предпосевная культивация под сах.свеклу - площадь за день 426 площадь с начала операции 1628
-посев сах.свеклы - площадь за день 285 площадь с начала операции 1229 (57%) 7ед.
+2 подкормка озимой пшеницы день 622 от начала 6975
+предпосевная культивация под сахарную свеклу день 426 от начала 1628
+посев сах.свеклы день 285 от начала 1229 57 7ед.
 осталось 912га
-выравнивание зяби под кукурузу - площадь за день 161 площадь с начала операции 2804</t>
+выравнивание зяби под кукурузу день 161 от начала 2804</t>
         </is>
       </c>
     </row>
@@ -3772,11 +3770,11 @@
       <c r="C100" t="inlineStr">
         <is>
           <t>рассвет
-посев сахарная свеклы площадь за день 1200 площадь с начала операции 9359/83%
-культура. сахарная свёкла площадь за день 1014 площадь с начала операции 10241/91%
-2-подкормка озимая пшеницыплощадь за день 1753 площадь с начала операции 31924/99%
-герб. обработка озимая пшеницы площадь за день 643 площадь с начала операции 643/2%
-герб. почвен. сахарная свёкла площадь за день 100 площадь с начала операции 100га</t>
+посев сахарная свеклы день 1200 от начала 9359 83 
+культура. сахарная свёкла день 1014 от начала 10241 91 
+2 подкормка озимая пшеницыдень 1753 от начала 31924 99 
+герб. обработка озимая пшеницы день 643 от начала 643 2 
+герб. почвен. сахарная свёкла день 100 от начала 100га</t>
         </is>
       </c>
     </row>
@@ -3801,17 +3799,17 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>восход
+          <t xml:space="preserve">восход
 предпосевная культивация под
-кук-219га, 21%
-посев кук-21га, 2%
-вторая подкормка озимая пшеница день-474га, всего-692,31,5%
-1-я срадство защиты растений по озимая пшеница
-136га, 6%
-предпосевное внесение  под
-посев кукурузный ам селитра-114га
-,86%. до всходовое
-боронование подсолн-105га, 20%</t>
+кук 219га, 21 
+посев кук 21га, 2 
+вторая подкормка озимая пшеница день 474га, всего 692,31,5 
+1 я срадство защиты растений по озимая пшеница
+136га, 6 
+предпосевное внесение под
+посев кукурузы ам селитра 114га
+,86 . до всходовое
+боронование подсолн 105га, 20 </t>
         </is>
       </c>
     </row>
@@ -3833,9 +3831,9 @@
         <is>
           <t>ао кропоткинское
 29.03.25
-2 подкормка озимой пшеницы - площадь за день 279 площадь с начала операции 7254
-предпосевная культивация под сах.свеклу - площадь за день 241 площадь с начала операции 1869
-посев сах.свеклы - площадь за день 336 площадь с начала операции 1565 (73%) 7ед.
+2 подкормка озимой пшеницы день 279 от начала 7254
+предпосевная культивация под сахарную свеклу день 241 от начала 1869
+посев сах.свеклы день 336 от начала 1565 73 7ед.
 осталось 576га</t>
         </is>
       </c>
@@ -3884,37 +3882,37 @@
       <c r="C103" t="inlineStr">
         <is>
           <t>полевые работы аор, 13.11.2024.
-пахота под кукурузу на зерно:
-день - 86 га 
-от начала- 3905 га (95%)
-остаток - 192 га
-пахота под сою:
-день - 260 га 
-от начала - 6509 га (75%)
-остаток- 2169 га 
-пахота под кукурузу на силос:
-день - 156 га 
-от начала - 1657 га(54%)
-остаток - 1429 га 
-чизелевание под сою:
-день -54 га 
-от начала - 768 га
-остаток от плана - 38 га 
-выравнивание зяби под сахарную свеклу:
-день - 312 га 
-от начала-7498 га (67%)
-остаток - 3752 га
-2 след выравнивания зяби под сах.свеклу:
-день- 101 га 
-от начала- 425 га (4%)
-остаток - 10825 га 
-затравка мышевидных грызунов по мн.травам:
-день - 88 га 
-от начала -965 га (55%)
-остаток - 524 га
-посев озимой пшеницы (товарной):
-день - 85 га 
-от начала - 28416 га (100%)
+пахота под кукурузу на зерно 
+день 86 
+от начала 3905 95 
+остаток 192 
+пахота под сою 
+день 260 
+от начала 6509 75 
+остаток 2169 
+пахота под кукурузу на силос 
+день 156 
+от начала 1657 54 
+остаток 1429 
+чизелевание под сою 
+день 54 
+от начала 768 
+остаток от плана 38 
+выравнивание зяби под сахарную свеклу 
+день 312 
+от начала 7498 67 
+остаток 3752 
+2 следующий выравнивания зяби под сах.свеклу 
+день 101 
+от начала 425 4 
+остаток 10825 
+затравка мышевидных грызунов по мн.травам 
+день 88 
+от начала 965 55 
+остаток 524 
+посев озимой пшеницы товарной 
+день 85 
+от начала 28416 100 
 посев озимых зерновых по аор завершен.</t>
         </is>
       </c>
@@ -3936,10 +3934,10 @@
       <c r="C104" t="inlineStr">
         <is>
           <t>14.11 мир
-пахота зяби под кукурузу 57 га день, 562 га от начала, 83%, 110 га остаток.
-пахота зяби под сою 60 га день, 799 га от начала, 70%, 340 га остаток.
+пахота зяби под кукурузу 57 день, 562 от начала, 83 , 110 остаток.
+пахота зяби под сою 60 день, 799 от начала, 70 , 340 остаток.
 работало 5 агрегатов.
-выравнивание зяби под сахарную свёклу 130 га день, 874 га от начала, 92 %, 78 га остаток.
+выравнивание зяби под сахарную свёклу 130 день, 874 от начала, 92 , 78 остаток.
 работал 1 агрегат.</t>
         </is>
       </c>
@@ -3969,10 +3967,10 @@
 сп коломейцево 
 пахота под сахарная свекла
 день 29га
-от начала 315га(100%)
+от начала 315га 100 
 выравнивание под сахарную свёклу 
 день 20га
-от начала 125га(39%)
+от начала 125га 39 
 выравнивание под подсолнечник
 день 14га
 от начала 14га</t>
@@ -3994,8 +3992,8 @@
       <c r="C106" t="inlineStr">
         <is>
           <t>тск
-вспашка под кукурузу 70 га/ с нарастающим 1377 га (100%)
-выравнивание зяби под сою 155 га/ с нарастающим 334 га (5%) остаток 5763 га
+вспашка под кукурузу 70 с нарастающим 1377 100 
+выравнивание зяби под сою 155 с нарастающим 334 5 остаток 5763 
 осадки 2 мм</t>
         </is>
       </c>
@@ -4046,42 +4044,5413 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>полевые работы аор, 14.11.2024.
-пахота под кукурузу на зерно:
-день - 26 га 
-от начала - 3931 га (96%)
-остаток - 166 га 
-пахота под сою:
-день - 295 га 
-от начала - 6804 га (79%)
-остаток- 1774 га 
-пахота под кукурузу на силос:
-день - 128 га 
-от начала - 1881 га(61%)
-остаток - 1205 га 
-чизелевание под сою:
-день -73 га 
-от начала - 841 га
-выравнивание зяби под сахарную свеклу:
-день - 384 га 
-от начала-7882 га (70%)
-остаток - 3368 га
-выравнивание зяби под подсолнечник:
-день - 50 га 
-от начала - 1260 га (30%)
-остаток - 2923 га 
-2 след выравнивания зяби под сах.свеклу:
-день- 44 га 
-от начала- 469 га (4%)
-остаток - 10781 га 
-затравка мышевидных грызунов по мн.травам:
-день - 53 га 
-от начала -1018 га (58%)
-остаток - 471 га
-затравка мышевидных грызунов по озимому ячменю:
-день - 186 га 
-от начала- 186 га 
-остаток - 2086 га</t>
+          <t xml:space="preserve">полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно 
+день 26 
+от начала 3931 96 
+остаток 166 
+пахота под сою 
+день 295 
+от начала 6804 79 
+остаток 1774 
+пахота под кукурузу на силос 
+день 128 
+от начала 1881 61 
+остаток 1205 
+чизелевание под сою 
+день 73 
+от начала 841 
+выравнивание зяби под сахарную свеклу 
+день 384 
+от начала 7882 70 
+остаток 3368 
+выравнивание зяби под подсолнечник 
+день 50 
+от начала 1260 30 
+остаток 2923 
+2 следующий выравнивания зяби под сах.свеклу 
+день 44 
+от начала 469 4 
+остаток 10781 
+затравка мышевидных грызунов по мн.травам 
+день 53 
+от начала 1018 58 
+остаток 471 
+затравка мышевидных грызунов по озимому ячменю 
+день 186 
+от начала 186 
+остаток 2086 </t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2-е диск рапс под сах/свекл
+По Пу 34/746
+Отд 16 45/324
+Дисков сах св под оз пш
+По Пу 56/212
+Отд 14 89/121
+2-е диск рапс под сах/свекл
+По Пу 34/746
+Отд 16 45/324
+Пахота сои под кук/свёкл
+По Пу 45/433
+Отд 17 143/192</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>второе дискование рапс под сахарная свекла
+по пу день 34 от начала 746
+отделение 16 день 45 от начала 324
+дискование сахарная свекла под озимая пшеница
+по пу день 56 от начала 212
+отделение 14 день 89 от начала 121
+второе дискование рапс под сахарная свекла
+по пу день 34 от начала 746
+отделение 16 день 45 от начала 324
+пахота сои под кук свёкл
+по пу день 45 от начала 433
+отделение 17 день 143 от начала 192</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Предп культ под кук с
+По Пу 45/343
+Отд 45 232/234
+Отд 12 121/879
+Пахота сои под оз пш
+По Пу 151/353
+Отд 17 121/5663
+Выравн силос
+По Пу 342/232
+Отд 12 432/352</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>предпосевная культура под кукурузный силос
+по пу день 45 от начала 343
+отделение 45 день 232 от начала 234
+отделение 12 день 121 от начала 879
+пахота сои под озимая пшеница
+по пу день 151 от начала 353
+отделение 17 день 121 от начала 5663
+выравнивание силос
+по пу день 342 от начала 232
+отделение 12 день 432 от начала 352</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Чизел под оз пш
+По Пу 45/233
+Отд 23 4/6
+Отд 55 2/43
+Отд 12 11/545</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>чизлование под озимая пшеница
+по пу день 45 от начала 233
+отделение 23 день 4 от начала 6
+отделение 55 день 2 от начала 43
+отделение 12 день 11 от начала 545</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>уборка пш под отц тр
+По Пу 12/43
+Отд 12 43/54
+Выкаш с св под кук/силос
+По Пу 34/56
+Отд 45 12/45
+Отд 34 23/32</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>уборка пшеница под отцовские травы травы
+по пу день 12 от начала 43
+отделение 12 день 43 от начала 54
+выкашивание с свекла под кукурузный силос
+по пу день 34 от начала 56
+отделение 45 день 12 от начала 45
+отделение 34 день 23 от начала 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>выкаш отц тр под сах.св.
+По Пу 54/65
+Отд 34 232/323
+Уборка пшен под кук/сил
+По Пу 232/454
+Отд 45 32/45
+Пахота отц тр под оз ячмень
+По Пу 67/34
+Отд 45 232/567
+Отд 34 235/876</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>выкашивание отцовские травы травы под сахарная свекла
+по пу день 54 от начала 65
+отделение 34 день 232 от начала 323
+уборка пшеница под кукурузный силос
+по пу день 232 от начала 454
+отделение 45 день 32 от начала 45
+пахота отцовские травы травы под озимая ячмень
+по пу день 67 от начала 34
+отделение 45 день 232 от начала 567
+отделение 34 день 235 от начала 876</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Сев сах св под ячмень
+ПоПу 118/221
+Отд 12 434/455
+Отд 68 342/243
+Выравн под сою
+ПоПу 143/1113
+Отд 12 45/232
+Предп культ под отц тр
+Попу 9/322
+Отд 92 323/424</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>посев сахарная свекла под ячмень
+по пу день 118 от начала 221
+отделение 12 день 434 от начала 455
+отделение 68 день 342 от начала 243
+выравнивание под сою
+по пу день 143 от начала 1113
+отделение 12 день 45 от начала 232
+предпосевная культура под отцовские травы травы
+по пу день 9 от начала 322
+отделение 92 день 323 от начала 424</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Сев тр под сах/свеклу
+ПоПу 1141/1241
+Отд 9 567/455
+2-я подкормка под сах/свекл
+ПоПу 143/1113
+Отд 17 48/454
+Предп культ под отц тр
+Попу 148/565
+Отд 92 323/940
+Отд 8 565/356
+Отд 7 985/363
+Отд 43 567/383
+Сев пш оз под ячмень
+По Пу 543/323
+Отд 63 923/230</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>посев травы под сахарная свекла
+по пу день 1141 от начала 1241
+отделение 9 день 567 от начала 455
+вторая подкормка под сахарная свекла
+по пу день 143 от начала 1113
+отделение 17 день 48 от начала 454
+предпосевная культура под отцовские травы травы
+по пу день 148 от начала 565
+отделение 92 день 323 от начала 940
+отделение 8 день 565 от начала 356
+отделение 7 день 985 от начала 363
+отделение 43 день 567 от начала 383
+посев пшеница озимая под ячмень
+по пу день 543 от начала 323
+отделение 63 день 923 от начала 230</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>четвертая подкормка ячмень под оз пш
+ПоПу 123/650
+Отд 8 33/5749
+пахота под сах св
+Попу 142/830
+Отд 9 293/194
+Отд 17 472/4639
+Отд 47 573/124
+Диск кук силос под рапс
+По Пу 241/730
+Отд 47 422/649
+Отд 37 736/839</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>четвертая подкормка ячмень под озимая пшеница
+по пу день 123 от начала 650
+отделение 8 день 33 от начала 5749
+пахота под сахарная свекла
+по пу день 142 от начала 830
+отделение 9 день 293 от начала 194
+отделение 17 день 472 от начала 4639
+отделение 47 день 573 от начала 124
+дискование кукурузы силос под рапс
+по пу день 241 от начала 730
+отделение 47 день 422 от начала 649
+отделение 37 день 736 от начала 839</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Диск под оз. п
+По Пу 491/832
+Отд 12 492/993
+Отд 9 743/890
+выравн зяби под подсолнухи
+ПоПу 7309/790
+Отд 16 464/5793
+выравн под сах/св
+По пу 638/378
+Отд 47 538/638
+Отд 11 492/824
+Отд 10 492/824
+Диск под рапс
+По Пу 291/832
+Отд 12 432/909
+Отд 9 743/890</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>дискование под озимая пшеница
+по пу день 491 от начала 832
+отделение 12 день 492 от начала 993
+отделение 9 день 743 от начала 890
+выравнивание зяби под подсолнухи
+по пу день 7309 от начала 790
+отделение 16 день 464 от начала 5793
+выравнивание под сахарная свекла
+по пу день 638 от начала 378
+отделение 47 день 538 от начала 638
+отделение 11 день 492 от начала 824
+отделение 10 день 492 от начала 824
+дискование под рапс
+по пу день 291 от начала 832
+отделение 12 день 432 от начала 909
+отделение 9 день 743 от начала 890</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Выравн под сах/св
+ПоПу 146/9212
+Отд 11 93/422
+Отд 12 36/134
+Отд 19 84/119
+Пахота ячм под сою
+ПоПу 19/732
+Отд 19 13/807
+выравн под кук зерно
+ПоПу 119/119
+Отд 12 39/39
+Отд 16 80/80</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>выравнивание под сахарная свекла
+по пу день 146 от начала 9212
+отделение 11 день 93 от начала 422
+отделение 12 день 36 от начала 134
+отделение 19 день 84 от начала 119
+пахота ячмень под сою
+по пу день 19 от начала 732
+отделение 19 день 13 от начала 807
+выравнивание под кукурузы зерно
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>пахота под кукурузный силос
+Попу 432/740
+Отд 39 364/394
+Отд 19 1232/32539
+Отд 7 52/134
+выравн кук силос под оз пш
+По Пу 78/729
+Отд 47 432/909
+Отд 37 712/839
+внесение мин удобрений под сах свёклу
+По пу 532/322
+отд 43 343/212</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>пахота под кукурузный силос
+по пу день 432 от начала 740
+отделение 39 день 364 от начала 394
+отделение 19 день 1232 от начала 32539
+отделение 7 день 52 от начала 134
+выравнивание кукурузы силос под озимая пшеница
+по пу день 78 от начала 729
+отделение 47 день 432 от начала 909
+отделение 37 день 712 от начала 839
+внесение минеральные удобрений под сахарная свёклу
+по пу день 532 от начала 322
+отделение 43 день 343 от начала 212</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>диск кук силос под рапс
+Попу 4321/420
+Отд 39 3232/324
+Отд 7 52/134
+отд 43 343/133
+отд 43 22/32
+внесение мин удобрений под кук силос
+По Пу 342/78
+Отд 27 232/349
+внесение мин удобрений под оз пш
+По пу 422/342
+Отд 18 319/943</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>дискование кукурузы силос под рапс
+по пу день 4321 от начала 420
+отделение 39 день 3232 от начала 324
+отделение 7 день 52 от начала 134
+отделение 43 день 343 от начала 133
+отделение 43 день 22 от начала 32
+внесение минеральные удобрений под кукурузы силос
+по пу день 342 от начала 78
+отделение 27 день 232 от начала 349
+внесение минеральные удобрений под озимая пшеница
+по пу день 422 от начала 342
+отделение 18 день 319 от начала 943</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>диск сахарной свеклы под подсолнечник
+Попу 41/442
+Отд 343 332/1562
+внесение мин удобрений под сою
+По Пу 584/98
+Отд 27 242/385
+сев под кукурузу
+По Пу 342/78
+Отд 27 232/349
+2-я подкормка озимой пшеницы под сах свекл
+По пу 422/342
+Отд 18 319/943
+Отд 7 52/134
+отд 43 343/133
+отд 43 22/32</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>дискование сахарной свеклы под подсолнечник
+по пу день 41 от начала 442
+отделение 343 день 332 от начала 1562
+внесение минеральные удобрений под сою
+по пу день 584 от начала 98
+отделение 27 день 242 от начала 385
+посев под кукурузу
+по пу день 342 от начала 78
+отделение 27 день 232 от начала 349
+вторая подкормка озимой пшеницы под сахарная свеклы
+по пу день 422 от начала 342
+отделение 18 день 319 от начала 943
+отделение 7 день 52 от начала 134
+отделение 43 день 343 от начала 133
+отделение 43 день 22 от начала 32</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>предпосевная культивация под кукурузу
+Попу 637/783
+Отд 3 830/8903
+сев под оз пш
+По Пу 783/890
+Отд 12 389/636
+диск озимой пшеницы под сах свекл
+По пу 904/748
+Отд 18 235/965
+Отд 7 263/473
+отд 43 273/221
+отд 43 237/859
+Чизел под ячмень
+По Пу 3737/283
+Отд 27 378/478</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>предпосевная культивация под кукурузу
+по пу день 637 от начала 783
+отделение 3 день 830 от начала 8903
+посев под озимая пшеница
+по пу день 783 от начала 890
+отделение 12 день 389 от начала 636
+дискование озимой пшеницы под сахарная свеклы
+по пу день 904 от начала 748
+отделение 18 день 235 от начала 965
+отделение 7 день 263 от начала 473
+отделение 43 день 273 от начала 221
+отделение 43 день 237 от начала 859
+чизлование под ячмень
+по пу день 3737 от начала 283
+отделение 27 день 378 от начала 478</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Выравн под сах св
+Попу 263/489
+Отд 15 637/562
+Отд 35 382/226
+сев кук под сах св
+По Пу 783/890
+Отд 12 389/636
+диск озимой пшеницы под сах свекл
+По пу 90343/74232
+Отд 18 23/789
+Отд 54 21/411
+отд 12 21/232
+отд 11 763/829
+предп культ под кук силос
+По Пу 3737/283
+Отд 27 378/478</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>выравнивание под сахарная свекла
+по пу день 263 от начала 489
+отделение 15 день 637 от начала 562
+отделение 35 день 382 от начала 226
+посев кукурузы под сахарная свекла
+по пу день 783 от начала 890
+отделение 12 день 389 от начала 636
+дискование озимой пшеницы под сахарная свеклы
+по пу день 90343 от начала 74232
+отделение 18 день 23 от начала 789
+отделение 54 день 21 от начала 411
+отделение 12 день 21 от начала 232
+отделение 11 день 763 от начала 829
+предпосевная культура под кукурузы силос
+по пу день 3737 от начала 283
+отделение 27 день 378 от начала 478</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>пахота кукурузы под ячмень
+попу 642/902
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+диск оз пш под сах свекл
+по пу 212/122
+отд 16 31/137
+пахота культ под оз пш
+по пу 48/233
+отд 21 345/232
+отд 33 323/3232
+2-е диск под мн тр
+по пу 14/535
+отд 13 343/232</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>пахота кукурузы под ячмень
+по пу день 642 от начала 902
+отделение 1 день 32 от начала 322
+отделение 21 день 748 от начала 211
+отделение 19 день 133 от начала 21
+дискование озимая пшеница под сахарная свеклы
+по пу день 212 от начала 122
+отделение 16 день 31 от начала 137
+пахота культура под озимая пшеница
+по пу день 48 от начала 233
+отделение 21 день 345 от начала 232
+отделение 33 день 323 от начала 3232
+второе дискование под многолетние травы
+по пу день 14 от начала 535
+отделение 13 день 343 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+пахота кукурузы под ячмень
+попу 642/902
+Отд 11 161/534
+Отд 12 86/449
+Пахота зяби под мн тр
+По Пу 26/566
+Отд 12 26/299
+Предп культ под оз пш
+По Пу 247/1650
+отд 1 32/322
+отд 21 748/211
+отд 19 133/21
+Диск сах св
+По Пу 47/1051
+Отд 17 47/349
+2-е диск сах св под пш
+По Пу 23/922
+Отд 17 23/255
+Выравн зяби под мн тр
+По Пу 48/337
+Отд 12 48/70
+</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">пахота кукурузы под ячмень
+по пу день 642 от начала 902
+отделение 11 день 161 от начала 534
+отделение 12 день 86 от начала 449
+пахота зяби под многолетние травы
+по пу день 26 от начала 566
+отделение 12 день 26 от начала 299
+предпосевная культура под озимая пшеница
+по пу день 247 от начала 1650
+отделение 1 день 32 от начала 322
+отделение 21 день 748 от начала 211
+отделение 19 день 133 от начала 21
+дискование сахарная свекла
+по пу день 47 от начала 1051
+отделение 17 день 47 от начала 349
+второе дискование сахарная свекла под пшеница
+по пу день 23 от начала 922
+отделение 17 день 23 от начала 255
+выравнивание зяби под многолетние травы
+по пу день 48 от начала 337
+отделение 12 день 48 от начала 70
+пахота кукурузы под ячмень
+по пу день 642 от начала 902
+отделение 11 день 161 от начала 534
+отделение 12 день 86 от начала 449
+пахота зяби под многолетние травы
+по пу день 26 от начала 566
+отделение 12 день 26 от начала 299
+предпосевная культура под озимая пшеница
+по пу день 247 от начала 1650
+отделение 1 день 32 от начала 322
+отделение 21 день 748 от начала 211
+отделение 19 день 133 от начала 21
+дискование сахарная свекла
+по пу день 47 от начала 1051
+отделение 17 день 47 от начала 349
+второе дискование сахарная свекла под пшеница
+по пу день 23 от начала 922
+отделение 17 день 23 от начала 255
+выравнивание зяби под многолетние травы
+по пу день 48 от начала 337
+отделение 12 день 48 от начала 70
+пахота кукурузы под ячмень
+по пу день 642 от начала 902
+отделение 11 день 161 от начала 534
+отделение 12 день 86 от начала 449
+пахота зяби под многолетние травы
+по пу день 26 от начала 566
+отделение 12 день 26 от начала 299
+предпосевная культура под озимая пшеница
+по пу день 247 от начала 1650
+отделение 1 день 32 от начала 322
+отделение 21 день 748 от начала 211
+отделение 19 день 133 от начала 21
+дискование сахарная свекла
+по пу день 47 от начала 1051
+отделение 17 день 47 от начала 349
+второе дискование сахарная свекла под пшеница
+по пу день 23 от начала 922
+отделение 17 день 23 от начала 255
+выравнивание зяби под многолетние травы
+по пу день 48 от начала 337
+отделение 12 день 48 от начала 70
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>пахота зяби под сах св
+По пу 65/223
+Отд 12 213/123
+выравн зяби под кук/силос
+по пу 32/323
+отд 11 212/144
+2-е диск кук/силос под сах св
+по пу 232/233
+отд 2 12/422
+2-е диск отц форм под кук силос
+по пу 119/434
+отд 32 323/232</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>пахота зяби под сахарная свекла
+по пу день 65 от начала 223
+отделение 12 день 213 от начала 123
+выравнивание зяби под кукурузный силос
+по пу день 32 от начала 323
+отделение 11 день 212 от начала 144
+второе дискование кукурузный силос под сахарная свекла
+по пу день 232 от начала 233
+отделение 2 день 12 от начала 422
+второе дискование отцовские травы формирование под кукурузы силос
+по пу день 119 от начала 434
+отделение 32 день 323 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>11.2 выкаш кук силос под сах св
+По пу 325/4643
+Отд 92 643/222
+Отд 23 647/672
+выравн отц тр под кук/силос
+по пу 32/323
+отд 11 212/144
+2-е диск пш под сах св
+по пу 232/233
+отд 2 12/422
+выравн отц форм под кук силос
+по пу 119/434
+отд 32 323/232</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>11.2 выкашивание кукурузы силос под сахарная свекла
+по пу день 325 от начала 4643
+отделение 92 день 643 от начала 222
+отделение 23 день 647 от начала 672
+выравнивание отцовские травы травы под кукурузный силос
+по пу день 32 от начала 323
+отделение 11 день 212 от начала 144
+второе дискование пшеница под сахарная свекла
+по пу день 232 от начала 233
+отделение 2 день 12 от начала 422
+выравнивание отцовские травы формирование под кукурузы силос
+по пу день 119 от начала 434
+отделение 32 день 323 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>11.3 2-е диск отц тр под сах св
+По пу 325/4643
+Отд 92 643/222
+Отд 23 647/672
+выравн кук силос под кук/силос
+по пу 115/323
+отд 13 320/463
+2-е диск пш под сах св
+по пу 620/463
+отд 2 6379/748
+выравн отц форм под сах св
+по пу 189/748
+отд 58 849/323</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>11.3 второе дискование отцовские травы травы под сахарная свекла
+по пу день 325 от начала 4643
+отделение 92 день 643 от начала 222
+отделение 23 день 647 от начала 672
+выравнивание кукурузы силос под кукурузный силос
+по пу день 115 от начала 323
+отделение 13 день 320 от начала 463
+второе дискование пшеница под сахарная свекла
+по пу день 620 от начала 463
+отделение 2 день 6379 от начала 748
+выравнивание отцовские травы формирование под сахарная свекла
+по пу день 189 от начала 748
+отделение 58 день 849 от начала 323</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Выравн под оз пш
+по пу 54/334
+Отд 13 14/544
+отд 15 12/121
+диск пш под сах свекла
+по пу 653/232
+отд 22 12/442
+отд 23 43/434</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>выравнивание под озимая пшеница
+по пу день 54 от начала 334
+отделение 13 день 14 от начала 544
+отделение 15 день 12 от начала 121
+дискование пшеница под сахарная свекла
+по пу день 653 от начала 232
+отделение 22 день 12 от начала 442
+отделение 23 день 43 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>16.11 Чизел под оз ячмень
+по пу 12/554
+отд 14 43/443
+Чизел под св
+по пу 45/334
+отд 34 32/559
+отд 98 23/778
+сев под сах св
+по пу 56/334
+отд 25 53/665</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>16.11 чизлование под озимая ячмень
+по пу день 12 от начала 554
+отделение 14 день 43 от начала 443
+чизлование под свекла
+по пу день 45 от начала 334
+отделение 34 день 32 от начала 559
+отделение 98 день 23 от начала 778
+посев под сахарная свекла
+по пу день 56 от начала 334
+отделение 25 день 53 от начала 665</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>диск-ие с св под кук силос
+по пу 323/2432
+отд 12 211/214
+сев сах св под кук силос
+по пу 433/434
+отд 45 223/998</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>дискование с свекла под кукурузы силос
+по пу день 323 от начала 2432
+отделение 12 день 211 от начала 214
+посев сахарная свекла под кукурузы силос
+по пу день 433 от начала 434
+отделение 45 день 223 от начала 998</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>12.04.25 2-е диск-ие с св под кук силос
+по пу 983/238
+отд 13 211/414
+сев сах св под кук силос
+по пу 323/844
+отд 45 243/348
+отд 34 131/234
+сев под с св
+по пу 323/2322
+отд 32 213/3232
+отд 32 3232/232
+выравн зяби под подсолнухи
+попу 12/322
+отд 65 322/2323</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>12.04.25 второе дискование с свекла под кукурузы силос
+по пу день 983 от начала 238
+отделение 13 день 211 от начала 414
+посев сахарная свекла под кукурузы силос
+по пу день 323 от начала 844
+отделение 45 день 243 от начала 348
+отделение 34 день 131 от начала 234
+посев под с свекла
+по пу день 323 от начала 2322
+отделение 32 день 213 от начала 3232
+отделение 32 день 3232 от начала 232
+выравнивание зяби под подсолнухи
+по пу день 12 от начала 322
+отделение 65 день 322 от начала 2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>2.12 выравн под ячм
+попу 21/764
+отд 54 547/750
+диск кук силос под рапс
+попу 324/424
+отд 42 5638/5445
+чизел под оз ячмень
+по пу 32/7509
+отд 34 322/323</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>2.12 выравнивание под ячмень
+по пу день 21 от начала 764
+отделение 54 день 547 от начала 750
+дискование кукурузы силос под рапс
+по пу день 324 от начала 424
+отделение 42 день 5638 от начала 5445
+чизлование под озимая ячмень
+по пу день 32 от начала 7509
+отделение 34 день 322 от начала 323</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>подкормка под оз пш
+по пу 323/323
+отд 76 644/343
+отд 17 32/453
+сев сах св
+попу 320/242
+отд 32 323/435</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>подкормка под озимая пшеница
+по пу день 323 от начала 323
+отделение 76 день 644 от начала 343
+отделение 17 день 32 от начала 453
+посев сахарная свекла
+по пу день 320 от начала 242
+отделение 32 день 323 от начала 435</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>сев сах св
+попу 2221/142
+отд 18 242/245
+отд 78 4224/4343
+подкормка под подсолнухи
+попу 9747/866
+отд 46 2323/3535
+отд 43 434/780
+подкормка под кук зерно
+попу 7865/282
+отд 563/232</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>посев сахарная свекла
+по пу день 2221 от начала 142
+отделение 18 день 242 от начала 245
+отделение 78 день 4224 от начала 4343
+подкормка под подсолнухи
+по пу день 9747 от начала 866
+отделение 46 день 2323 от начала 3535
+отделение 43 день 434 от начала 780
+подкормка под кукурузы зерно
+по пу день 7865 от начала 282
+отделение день 563 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>выравн кук под сою
+попу 323/4343
+отд 7 3232/232</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>выравнивание кукурузы под сою
+по пу день 323 от начала 4343
+отделение 7 день 3232 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>подкормка сах св под кук зерно
+попу 2442/232
+отд 324/3232
+сев сах св
+попу 234/2322
+отд 22 892/232
+внесен КАС под оз пш
+попу 5932/6748
+отд 32 89/765
+предп культ под сах св.
+попу 35534/5457
+отд 45 235/2532
+отд 32 324/234</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>подкормка сахарная свекла под кукурузы зерно
+по пу день 2442 от начала 232
+отделение день 324 от начала 3232
+посев сахарная свекла
+по пу день 234 от начала 2322
+отделение 22 день 892 от начала 232
+внесен кас под озимая пшеница
+по пу день 5932 от начала 6748
+отделение 32 день 89 от начала 765
+предпосевная культура под сахарная свекла
+по пу день 35534 от начала 5457
+отделение 45 день 235 от начала 2532
+отделение 32 день 324 от начала 234</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>предп культ под кук зерно
+попу 242/2432
+отд 323 232/232
+предп культ под сою
+попу 242/2432
+отд 32 875/895
+выравн под кук/силос
+попу 536/3433
+отд 45 56475/3322
+отд 84 2435/67543</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>предпосевная культура под кукурузы зерно
+по пу день 242 от начала 2432
+отделение 323 день 232 от начала 232
+предпосевная культура под сою
+по пу день 242 от начала 2432
+отделение 32 день 875 от начала 895
+выравнивание под кукурузный силос
+по пу день 536 от начала 3433
+отделение 45 день 56475 от начала 3322
+отделение 84 день 2435 от начала 67543</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Внесен кас под кук силос
+по пу 323/2325
+отд 32 6784/242
+отд 43 2234/7876
+Внесен кас под кук силос
+по пу 4564/4352
+отд 32 235/3453
+внесение мин удобрений под оз ячмень
+попу 24354/3543
+отд 425/753</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>внесен кас под кукурузы силос
+по пу день 323 от начала 2325
+отделение 32 день 6784 от начала 242
+отделение 43 день 2234 от начала 7876
+внесен кас под кукурузы силос
+по пу день 4564 от начала 4352
+отделение 32 день 235 от начала 3453
+внесение минеральные удобрений под озимая ячмень
+по пу день 24354 от начала 3543
+отделение день 425 от начала 753</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>внесение мин удобрений под силос
+попу 423564/9875
+отд 45 343/563
+пахота под сах св
+попу 4354/35345
+отд 4355/2426
+внесен кас под кук силос
+попу 23223/25252
+отд 85 25/232</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под силос
+по пу день 423564 от начала 9875
+отделение 45 день 343 от начала 563
+пахота под сахарная свекла
+по пу день 4354 от начала 35345
+отделение день 4355 от начала 2426
+внесен кас под кукурузы силос
+по пу день 23223 от начала 25252
+отделение 85 день 25 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Внесение мин удобрений под сах св
+попу 2452/2422
+отд 2352/2424</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под сахарная свекла
+по пу день 2452 от начала 2422
+отделение день 2352 от начала 2424</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>чизел под ячмень
+попу 2532/2342
+отд 325/3465
+отд 353/3433
+внесение мин удобрений под оз рапс
+попу 2423/2342
+отд 87 2523/25235
+отд 53 353/3533</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>чизлование под ячмень
+по пу день 2532 от начала 2342
+отделение день 325 от начала 3465
+отделение день 353 от начала 3433
+внесение минеральные удобрений под озимая рапс
+по пу день 2423 от начала 2342
+отделение 87 день 2523 от начала 25235
+отделение 53 день 353 от начала 3533</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>выравн зяби под сою
+попу 2522/534654
+отд 22 2423/2342
+пахота зяби под пш
+попу 56758/3666
+отд 23 325/2423
+отд 54 2528/2532</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 2522 от начала 534654
+отделение 22 день 2423 от начала 2342
+пахота зяби под пшеница
+по пу день 56758 от начала 3666
+отделение 23 день 325 от начала 2423
+отделение 54 день 2528 от начала 2532</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>2-е диск сои под пш
+попу 346/3453
+отд 94 345/633
+отд 32 252/6346</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>второе дискование сои под пшеница
+по пу день 346 от начала 3453
+отделение 94 день 345 от начала 633
+отделение 32 день 252 от начала 6346</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>предп культ под сою
+попу 32/2
+отд 32 453/23
+дисков сах св
+попу 423/343
+отд 57 474/7434
+отд 43 43632/4734</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>предпосевная культура под сою
+по пу день 32 от начала 2
+отделение 32 день 453 от начала 23
+дискование сахарная свекла
+по пу день 423 от начала 343
+отделение 57 день 474 от начала 7434
+отделение 43 день 43632 от начала 4734</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>12.8 2-е дис сах св под пш
+попу 235/363
+отд 56 253/6784
+дисков под оз пш
+попу 252/235235
+отд 23/4363</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>12.8 второе дис сахарная свекла под пшеница
+по пу день 235 от начала 363
+отделение 56 день 253 от начала 6784
+дискование под озимая пшеница
+по пу день 252 от начала 235235
+отделение день 23 от начала 4363</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>31.12.25 пахота зяби под мн тр
+попу 46/3453
+отд 14 252/242
+2-е диск сах св под пш
+попу 252/23523
+отд 56 323/2423</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>31.12.25 пахота зяби под многолетние травы
+по пу день 46 от начала 3453
+отделение 14 день 252 от начала 242
+второе дискование сахарная свекла под пшеница
+по пу день 252 от начала 23523
+отделение 56 день 323 от начала 2423</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>пахота сои под ячмень
+попу 4346/4363
+отд 22 3252/32523
+2-е диск сах св под пш
+попу 3453/4344
+отд 3563/343</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>пахота сои под ячмень
+по пу день 4346 от начала 4363
+отделение 22 день 3252 от начала 32523
+второе дискование сахарная свекла под пшеница
+по пу день 3453 от начала 4344
+отделение день 3563 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>7.2 выравн яч под сою
+попу 232/2523
+отд 34 45/2347
+пахота ячмень под ячмень
+попу 2342/32423
+отд 22 3124/232342</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>7.2 выравнивание яч под сою
+по пу день 232 от начала 2523
+отделение 34 день 45 от начала 2347
+пахота ячмень под ячмень
+по пу день 2342 от начала 32423
+отделение 22 день 3124 от начала 232342</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>8.3 сев ячмень под озимый ячмень
+попу 4353/3435
+отд 81 243/2323
+отд 27 3242/232
+внесение гербицидов под оз пш
+попу 4242/2342
+отд 4 3244/3434
+отд 31 195/542</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>8.3 посев ячмень под озимый ячмень
+по пу день 4353 от начала 3435
+отделение 81 день 243 от начала 2323
+отделение 27 день 3242 от начала 232
+внесение гербицидов под озимая пшеница
+по пу день 4242 от начала 2342
+отделение 4 день 3244 от начала 3434
+отделение 31 день 195 от начала 542</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+попу 242/2323
+отд 23 323/232
+отд 24 232/3232</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+по пу день 242 от начала 2323
+отделение 23 день 323 от начала 232
+отделение 24 день 232 от начала 3232</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>4.3.25
+посев с св под оз пш
+попу 3435/3433
+отд 33 344/343
+пахота ячмень под кук силос
+попу 4774/4343
+отд 43 433/4343
+отд 7 33/343
+внесение гербицидоа под оз пш
+попу 433/433
+отд 78 323/252
+отд 4 4334/433</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>4.3.25
+посев с свекла под озимая пшеница
+по пу день 3435 от начала 3433
+отделение 33 день 344 от начала 343
+пахота ячмень под кукурузы силос
+по пу день 4774 от начала 4343
+отделение 43 день 433 от начала 4343
+отделение 7 день 33 от начала 343
+внесение гербицидоа под озимая пшеница
+по пу день 433 от начала 433
+отделение 78 день 323 от начала 252
+отделение 4 день 4334 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>7.2.24
+пахота сои под сах св
+попу 4353/4343
+отд 54 5454/5454
+отд 33 242/3433
+выравн яч под сою
+попу 4343/343
+отд 2442/223</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>7.2.24
+пахота сои под сахарная свекла
+по пу день 4353 от начала 4343
+отделение 54 день 5454 от начала 5454
+отделение 33 день 242 от начала 3433
+выравнивание яч под сою
+по пу день 4343 от начала 343
+отделение день 2442 от начала 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>2.5.25
+выравн сах св под кук силос
+попу 433/232
+отд 2 4242/242
+отд 23 322/4242
+сев ячмень под сах/свекл
+попу 24422/23232
+отд 8 786/565
+отд 56 4533/3436
+Пахота сои под оз пш
+попу 4353/3434
+отд 4 4343/34534
+отд 4 43435/3452</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>2.5.25
+выравнивание сахарная свекла под кукурузы силос
+по пу день 433 от начала 232
+отделение 2 день 4242 от начала 242
+отделение 23 день 322 от начала 4242
+посев ячмень под сахарная свекла
+по пу день 24422 от начала 23232
+отделение 8 день 786 от начала 565
+отделение 56 день 4533 от начала 3436
+пахота сои под озимая пшеница
+по пу день 4353 от начала 3434
+отделение 4 день 4343 от начала 34534
+отделение 4 день 43435 от начала 3452</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>5.3.25
+выкаш сах/свекл под оз пш
+попу 4355/3433
+отд 8 435/353
+отд 43 23/34334
+Чизед под сах/свекл
+попу 424/3433
+отд 5 2422/232</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>5.3.25
+выкашивание сахарная свекла под озимая пшеница
+по пу день 4355 от начала 3433
+отделение 8 день 435 от начала 353
+отделение 43 день 23 от начала 34334
+чизед под сахарная свекла
+по пу день 424 от начала 3433
+отделение 5 день 2422 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>6.4.33 выкаш с св под отц тр
+попу 422/223
+отд 322/223</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>6.4.33 выкашивание с свекла под отцовские травы травы
+по пу день 422 от начала 223
+отделение день 322 от начала 223</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>дисков сои под силос
+попу 4222/232
+отд 4 22/232
+пахота сои под оз пш
+попу 4242/242
+отд 3 232/2424</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>дискование сои под силос
+по пу день 4222 от начала 232
+отделение 4 день 22 от начала 232
+пахота сои под озимая пшеница
+по пу день 4242 от начала 242
+отделение 3 день 232 от начала 2424</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>выравн зяби под подсолнечник
+попу 434/4343
+отд 2 3222/4343
+отд 3 2322/353
+пахота зяби под кукурузу
+попу 23222/2323
+отд 24 43433/34353</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под подсолнечник
+по пу день 434 от начала 4343
+отделение 2 день 3222 от начала 4343
+отделение 3 день 2322 от начала 353
+пахота зяби под кукурузу
+по пу день 23222 от начала 2323
+отделение 24 день 43433 от начала 34353</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>сев кук/свеклу
+попу 242/232
+отд 3 4343/223
+сев сах св
+попу 2324/3539
+отд 7 487/343
+выравн под кук силос
+попу 434/343
+отд 32 2323/4334</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>посев кукурузная свекла
+по пу день 242 от начала 232
+отделение 3 день 4343 от начала 223
+посев сахарная свекла
+по пу день 2324 от начала 3539
+отделение 7 день 487 от начала 343
+выравнивание под кукурузы силос
+по пу день 434 от начала 343
+отделение 32 день 2323 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>2-я подкормка оз пш
+попу 224/4343
+отд 9 3224/2443
+пахотя зяби под сою
+попу 437/3434
+отд 8 43/587</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>вторая подкормка озимая пшеница
+по пу день 224 от начала 4343
+отделение 9 день 3224 от начала 2443
+пахотя зяби под сою
+по пу день 437 от начала 3434
+отделение 8 день 43 от начала 587</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>6.2 выравн зяби под сою
+попу 78/434
+отд 8 43/3554
+выравн под сах/свекл
+попу 4873/433
+отд 8 22</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>6.2 выравнивание зяби под сою
+по пу день 78 от начала 434
+отделение 8 день 43 от начала 3554
+выравнивание под сахарная свекла
+по пу день 4873 от начала 433
+отделение 8 22</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>выравн под кук/силос
+попу 23/85
+отд 8 43/343
+выравн зяби под кук/силос
+попу 424/3434
+отд 43 4343/4334</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>выравнивание под кукурузный силос
+по пу день 23 от начала 85
+отделение 8 день 43 от начала 343
+выравнивание зяби под кукурузный силос
+по пу день 424 от начала 3434
+отделение 43 день 4343 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>сплошная культивация оз пш под кукурузу
+попу 424/434
+отд 44 3443/434
+2-я подкормка озимой пш
+попу 23/2342
+отд 54 545/545</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>сплошная культивация озимая пшеница под кукурузу
+по пу день 424 от начала 434
+отделение 44 день 3443 от начала 434
+вторая подкормка озимой пшеница
+по пу день 23 от начала 2342
+отделение 54 день 545 от начала 545</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под оз пш
+попу 5353/3535
+отд 54 57/43433
+2-е диск сах/свекл
+попу 4353/5343
+отд 42 2443/4333</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под озимая пшеница
+по пу день 5353 от начала 3535
+отделение 54 день 57 от начала 43433
+второе дискование сахарная свекла
+по пу день 4353 от начала 5343
+отделение 42 день 2443 от начала 4333</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>сев сах свекл
+попу 546/454
+отд 7 76/668
+культивация сах свекл
+попу 43/8686
+отд 9 434/7676</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>посев сахарная свеклы
+по пу день 546 от начала 454
+отделение 7 день 76 от начала 668
+культивация сахарная свеклы
+по пу день 43 от начала 8686
+отделение 9 день 434 от начала 7676</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>посев подсолнкчника
+попу 678/544
+отд 8 535/343
+отд 9 443/4343</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>посев подсолнкчника
+по пу день 678 от начала 544
+отделение 8 день 535 от начала 343
+отделение 9 день 443 от начала 4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>выравн зяби под сою
+попу 433/433
+отд 3 3434/343
+Прокатывание посевов овса
+попу 4343/3453
+отд 4 545/422</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 433 от начала 433
+отделение 3 день 3434 от начала 343
+прокатывание посевов овса
+по пу день 4343 от начала 3453
+отделение 4 день 545 от начала 422</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>выравн под кук силос
+попу 2523/23423
+отд 4 434/4343
+отд 22 252/5325
+сев кукурузного силоса
+попу 4353/35435
+отд 7 346/3453
+отд 34 3453/4353</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>выравнивание под кукурузы силос
+по пу день 2523 от начала 23423
+отделение 4 день 434 от начала 4343
+отделение 22 день 252 от начала 5325
+посев кукурузного силоса
+по пу день 4353 от начала 35435
+отделение 7 день 346 от начала 3453
+отделение 34 день 3453 от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>7.4.63
+выравн под кук силос
+попу 4344/4343
+отд 76 545/545
+отд 546 545/554
+внесение удобрений под сах/свекл
+попу 533/55353
+отд 65 54/546
+отд 6 546/4645
+дисков сах св 
+попу 533/25235
+отд 8 434/353
+отд 25 5435/333</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>7.4.63
+выравнивание под кукурузы силос
+по пу день 4344 от начала 4343
+отделение 76 день 545 от начала 545
+отделение 546 день 545 от начала 554
+внесение удобрений под сахарная свекла
+по пу день 533 от начала 55353
+отделение 65 день 54 от начала 546
+отделение 6 день 546 от начала 4645
+дискование сахарная свекла 
+по пу день 533 от начала 25235
+отделение 8 день 434 от начала 353
+отделение 25 день 5435 от начала 333</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>5.4.21
+выравн под кук силос
+попу 43443/353
+отд 5 434/434
+отд 4 433/4534
+чизлевание под сах св
+попу 2342/234
+отд 78 433/3534</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5.4.21
+выравнивание под кукурузы силос
+по пу день 43443 от начала 353
+отделение 5 день 434 от начала 434
+отделение 4 день 433 от начала 4534
+чизлевание под сахарная свекла
+по пу день 2342 от начала 234
+отделение 78 день 433 от начала 3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>8.3 Прокатывание посевов кук силоса
+попу 4343/433
+отд 4 36/534
+попу 4334/535
+отд 45 435/235</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>8.3 прокатывание посевов кукурузы силоса
+по пу день 4343 от начала 433
+отделение 4 день 36 от начала 534
+по пу день 4334 от начала 535
+отделение 45 день 435 от начала 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>выравн силос
+попу 43535/345
+отд 5 42324/23
+выкаш отц форм
+попу 2432/324
+отд 4 43543/3434
+отд 4 353/343</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>выравнивание силос
+по пу день 43535 от начала 345
+отделение 5 день 42324 от начала 23
+выкашивание отцовские травы формирование
+по пу день 2432 от начала 324
+отделение 4 день 43543 от начала 3434
+отделение 4 день 353 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>подкормка кас под оз пш
+попу 35345/3453
+отд 8 63/345
+отд 1 23/232</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>подкормка кас под озимая пшеница
+по пу день 35345 от начала 3453
+отделение 8 день 63 от начала 345
+отделение 1 день 23 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>подкормка оз пш
+попу 436/5464
+отд 6 322/234
+подкормка сах/свекл
+попу 4335/4353
+отд 8 2523/2352</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>подкормка озимая пшеница
+по пу день 436 от начала 5464
+отделение 6 день 322 от начала 234
+подкормка сахарная свекла
+по пу день 4335 от начала 4353
+отделение 8 день 2523 от начала 2352</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>5.4.24
+выравнивание зяби под сах св
+попу 53/343
+отд 4 4353/232
+отд 4 33/3443</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5.4.24
+выравнивание зяби под сахарная свекла
+по пу день 53 от начала 343
+отделение 4 день 4353 от начала 232
+отделение 4 день 33 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>внесен кас под оз пш
+попу 43/435
+отд 32/235
+сев сах св
+попу 43 434/434
+отд 4 434/34</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>внесен кас под озимая пшеница
+по пу день 43 от начала 435
+отделение день 32 от начала 235
+посев сахарная свекла
+по пу 43 день 434 от начала 434
+отделение 4 день 434 от начала 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>пахота под сою
+попу 45/343
+отд 23/4343
+предп культ под сах св
+попу 435/435
+отд 6 4343/3443</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>пахота под сою
+по пу день 45 от начала 343
+отделение день 23 от начала 4343
+предпосевная культура под сахарная свекла
+по пу день 435 от начала 435
+отделение 6 день 4343 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>14.05 пахота под сою
+попу 45/343
+отд 23/4343
+предп культ под сах св
+попу 435/435
+отд 6 4343/3443</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>14.05 пахота под сою
+по пу день 45 от начала 343
+отделение день 23 от начала 4343
+предпосевная культура под сахарная свекла
+по пу день 435 от начала 435
+отделение 6 день 4343 от начала 3443</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>5.6
+внесен кас под оз пш
+попу 43/435
+отд 32/235
+сев сах св
+попу 43 434/434
+отд 4 434/34</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5.6
+внесен кас под озимая пшеница
+по пу день 43 от начала 435
+отделение день 32 от начала 235
+посев сахарная свекла
+по пу 43 день 434 от начала 434
+отделение 4 день 434 от начала 34</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>выравн под сою
+попу 4242/2432
+отд 32 2342/234
+предп культ под кук/з
+попу 435/435
+отд 7 434/43</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 4242 от начала 2432
+отделение 32 день 2342 от начала 234
+предпосевная культура под кукурузное зерно
+по пу день 435 от начала 435
+отделение 7 день 434 от начала 43</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>пахотя зяби
+попу 34345/343
+отд 5 3567/434</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>пахотя зяби
+по пу день 34345 от начала 343
+отделение 5 день 3567 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Восход
+84.11.26
+Чизел под оз ячмень 325/222/65%
+Выравн под мн тр 4353/433/45%
+внесение мин удобрений под сах св 232/2342/5%</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t xml:space="preserve">восход
+84.11.26
+чизлование под озимая ячмень день 325 от начала 222 65 
+выравнивание под многолетние травы день 4353 от начала 433 45 
+внесение минеральные удобрений под сахарная свекла день 232 от начала 2342 5 </t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>АО Пропоткинское
+17.11.24
+предпос культивация под кук/силос 2323/532435/78%
+выкаш сах св под кук силос 235/5435/78%
+2-е диск пш под сах св 535/5487/72%</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ао пропоткинское
+17.11.24
+предпос культивация под кукурузный силос день 2323 от начала 532435 78 
+выкашивание сахарная свекла под кукурузы силос день 235 от начала 5435 78 
+второе дискование пшеница под сахарная свекла день 535 от начала 5487 72 </t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Рассвет
+18.04.24
+культивация сах св 121/434/98%
+предпосевная культивация под сах св 23/232/75%</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t xml:space="preserve">рассвет
+18.04.24
+культивация сахарная свекла день 121 от начала 434 98 
+предпосевная культивация под сахарная свекла день 23 от начала 232 75 </t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Рассвет
+сев сах св 324758/3433
+отд 4363/433</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>рассвет
+посев сахарная свекла день 324758 от начала 3433
+отделение день 4363 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>19.04
+предпосевная культивация под кукурузу
+попу 23523/23523
+отд 23 23/232</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>19.04
+предпосевная культивация под кукурузу
+по пу день 23523 от начала 23523
+отделение 23 день 23 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>2-е диск под сах св пу "Юг" - 23523/2342
+отд 17 3252/32523
+отд 754 4654/5464
+сплошная культивация под сою пу "Север" - 4254/43534
+отд 19 325/433
+отд 24 235/3433</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>второе дискование под сахарная свекла пу юг день 23523 от начала 2342
+отделение 17 день 3252 от начала 32523
+отделение 754 день 4654 от начала 5464
+сплошная культивация под сою пу север день 4254 от начала 43534
+отделение 19 день 325 от начала 433
+отделение 24 день 235 от начала 3433</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>АО Коропоткинское
+диск кук/силос под сах св
+день 23532
+от начала 23523</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>ао коропоткинское
+дискование кукурузный силос под сахарная свекла
+день 23532
+от начала 23523</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>АО Коропоткинское
+16.11.25
+Прокатывание посевов овса
+день 23234
+от начала 325323
+сев кук/силос
+день 25345
+от начала 3252332</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ао коропоткинское
+16.11.25
+прокатывание посевов овса
+день 23234
+от начала 325323
+посев кукурузный силос
+день 25345
+от начала 3252332</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>СП Коломейцево
+17.5
+сев сах св
+день 25235
+от начала 32523
+2-я подкормка оз пш
+день 2523
+от начала 25322
+предпосевная культивация под сах св
+день 43534
+от начала 2524</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+17.5
+посев сахарная свекла
+день 25235
+от начала 32523
+вторая подкормка озимая пшеница
+день 2523
+от начала 25322
+предпосевная культивация под сахарная свекла
+день 43534
+от начала 2524</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>СП Коломейцево
+18.09
+варванивание зяби под сах свеклу
+день 245
+от начала 25325</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+18.09
+варванивание зяби под сахарная свеклу
+день 245
+от начала 25325</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>06.08.25
+диск кук/сил под ячмень пу "Кавказ" - 325325/436346
+внесен КАС под оз пш пу "Центр" - 25325/32523
+отд 235/2323</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>06.08.25
+дискование кукурузный силос под ячмень пу кавказ день 325325 от начала 436346
+внесен кас под озимая пшеница пу центр день 25325 от начала 32523
+отделение день 235 от начала 2323</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>8.5.25
+2-е диск кук/з под кук/силос пу "Центр" - 2352/23523
+диск ячмень под сою пу "Центр" - 2532/43634
+отд 13 325/43623</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>8.5.25
+второе дискование кукурузное зерно под кукурузный силос пу центр день 2352 от начала 23523
+дискование ячмень под сою пу центр день 2532 от начала 43634
+отделение 13 день 325 от начала 43623</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою пу "Север" - 325/6433
+отд 775 454/456</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою пу север день 325 от начала 6433
+отделение 775 день 454 от начала 456</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>15.8 Предп культ пу "Север" - 25345/3453
+отд 2 3252/235
+Выравн под сою пу "Центр" - 252235/2354
+отд 8 2342/4334
+сев сах св пу "Рассвет" - 325235/43623
+отд 98 25345/3456</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>15.8 предпосевная культура пу север день 25345 от начала 3453
+отделение 2 день 3252 от начала 235
+выравнивание под сою пу центр день 252235 от начала 2354
+отделение 8 день 2342 от начала 4334
+посев сахарная свекла пу рассвет день 325235 от начала 43623
+отделение 98 день 25345 от начала 3456</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>17.9 сев оз пшеницы пу "Юг" - 3223/2532
+отд 42 254/235</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>17.9 посев озимая пшеницы пу юг день 3223 от начала 2532
+отделение 42 день 254 от начала 235</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>16.02 выравн под кук/силос пу "Юг" - 132/2423
+отд 18 4343/435</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>16.02 выравнивание под кукурузный силос пу юг день 132 от начала 2423
+отделение 18 день 4343 от начала 435</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>19.08
+выравн кук силос
+попу 2534/5856
+отд 4 277/833</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>19.08
+выравнивание кукурузы силос
+по пу день 2534 от начала 5856
+отделение 4 день 277 от начала 833</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>выравн кук силос
+попу 35/58445
+отд 7 435/57567
+довосходовое боронование подсолнечника
+попу 436/6474
+отд 8 24324/4646</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>выравнивание кукурузы силос
+по пу день 35 от начала 58445
+отделение 7 день 435 от начала 57567
+довосходовое боронование подсолнечника
+по пу день 436 от начала 6474
+отделение 8 день 24324 от начала 4646</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>17.02
+диск сах св
+попу 4837/43523
+отд 62 435/5332
+18.03
+диск кук силос
+попу 423/46547
+отд 73 2525/6575</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>17.02
+дискование сахарная свекла
+по пу день 4837 от начала 43523
+отделение 62 день 435 от начала 5332
+18.03
+дискование кукурузы силос
+по пу день 423 от начала 46547
+отделение 73 день 2525 от начала 6575</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>довосходовое бронирование подсолнечника
+попу 53453/34343
+отд 3623/23495
+2-е диск под сах св
+попу 257/4343
+отд 7 3286/23423
+отд 83 245/23923</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>довосходовое бронирование подсолнечника
+по пу день 53453 от начала 34343
+отделение день 3623 от начала 23495
+второе дискование под сахарная свекла
+по пу день 257 от начала 4343
+отделение 7 день 3286 от начала 23423
+отделение 83 день 245 от начала 23923</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>14.8.25
+прокатывание посевов кукурозного зерна
+попу 32534/3434
+отд 83 43576/4542
+сев кук/силос
+попу 24767/357665
+отд 74 6885/5675</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>14.8.25
+прокатывание посевов кукурозного зерна
+по пу день 32534 от начала 3434
+отделение 83 день 43576 от начала 4542
+посев кукурузный силос
+по пу день 24767 от начала 357665
+отделение 74 день 6885 от начала 5675</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>сев кук/силос
+попу 435/343
+отд 34 43/343
+Прокатывание посевов овса
+попу 3223/3232
+отд 24 43535/676243</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>посев кукурузный силос
+по пу день 435 от начала 343
+отделение 34 день 43 от начала 343
+прокатывание посевов овса
+по пу день 3223 от начала 3232
+отделение 24 день 43535 от начала 676243</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+24.9
+пахота сои под ячмень
+день 26342
+от начала 36343</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+24.9
+пахота сои под ячмень
+день 26342
+от начала 36343</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>АО Коропоткинское
+8.3 сев озимый ячмень под оз пш</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>ао коропоткинское
+8.3 посев озимый ячмень под озимая пш</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Мир
+12.8.76
+пахота зяби под мн тр
+день 23523
+от начала 235232</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>мир
+12.8.76
+пахота зяби под многолетние травы
+день 23523
+от начала 235232</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Мир
+5.06.23
+внесение мин удобрений под кук/силос
+день 46765
+от начала 567655
+выравн под сах св
+день 325325
+от начала 25543</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>мир
+5.06.23
+внесение минеральные удобрений под кукурузный силос
+день 46765
+от начала 567655
+выравнивание под сахарная свекла
+день 325325
+от начала 25543</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>АО Кропоткинское
+6.6.21
+сев кукурузного силоса
+день 6533
+от начала 5685
+выравн под кук силос
+день 56865
+от начала 5865</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.6.21
+посев кукурузного силоса
+день 6533
+от начала 5685
+выравнивание под кукурузы силос
+день 56865
+от начала 5865</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Мир
+15.7.27
+посев подсолнечника 
+день 456543
+от начала 45654
+выравг под кук силос
+день 4666
+от начала 454486
+выравн под кук силос
+день 5755
+от начала 464647</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>мир
+15.7.27
+посев подсолнечника 
+день 456543
+от начала 45654
+выравг под кукурузы силос
+день 4666
+от начала 454486
+выравнивание под кукурузы силос
+день 5755
+от начала 464647</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>СП Коломейцево
+23.4.26
+диск кукукурузный силос под оз пш
+день 457
+от начала 5786
+сев сах св
+день 4774
+от начала 68965</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+23.4.26
+дискование кукукурузный силос под озимая пшеница
+день 457
+от начала 5786
+посев сахарная свекла
+день 4774
+от начала 68965</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Восход
+28.7.24
+прокатывание сах св
+день 24223
+от начала 2422</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>восход
+28.7.24
+прокатывание сахарная свекла
+день 24223
+от начала 2422</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>СП Коломейцево
+6.4.23
+диск оз пш под сах св
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+6.4.23
+дискование озимая пшеница под сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Мир
+выравн яч под сою
+день 23532
+от начала 2325
+диск сах св
+день 23532
+от начала 2523</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание яч под сою
+день 23532
+от начала 2325
+дискование сахарная свекла
+день 23532
+от начала 2523</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Мир
+диск под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>мир
+дискование под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Колхоз Прогресс
+чизел под оз пш
+день 25325
+от начала 25894
+Уборка пш под отц тр
+день 43
+от начала 12</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+день 25325
+от начала 25894
+уборка пшеница под отцовские травы травы
+день 43
+от начала 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Мир
+18.9.24
+выравн силос
+день 425346
+от начала 3633
+уборка пш под отц тр
+день 324
+от начала 2523
+выкаш с св под отц тр
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>мир
+18.9.24
+выравнивание силос
+день 425346
+от начала 3633
+уборка пшеница под отцовские травы травы
+день 324
+от начала 2523
+выкашивание с свекла под отцовские травы травы
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>АОР
+14.12.24
+Чизлевание под сах св
+день 32423
+от начала 25323</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>аор
+14.12.24
+чизлевание под сахарная свекла
+день 32423
+от начала 25323</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>11.3
+Мир
+Выравн зяби под сах свеклу
+день 130
+от начала 232</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>11.3
+мир
+выравнивание зяби под сахарная свеклу
+день 130
+от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>16.2
+Восход
+Пахота зяби под сою
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>16.2
+восход
+пахота зяби под сою
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>21.9
+Восход
+Пахота под кук/зерн
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>21.9
+восход
+пахота под кукурузное зерно
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>11.3
+Восход
+Выравнивание зяби под сах свеклу
+день 43875
+от начала 46384
+Пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>11.3
+восход
+выравнивание зяби под сахарная свеклу
+день 43875
+от начала 46384
+пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>18.03
+Колхоз Прогресс
+Пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>18.03
+колхоз прогресс
+пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>18.5.25
+Чизлевание под сою
+пахота под сах св
+день 2424
+от начала 35353</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>18.5.25
+чизлевание под сою
+пахота под сахарная свекла
+день 2424
+от начала 35353</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>АО Кропоткинское
+6.8.23
+диск сах св
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.8.23
+дискование сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>АО Кропоткинское
+6.8.23
+диск сах св
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+6.8.23
+дискование сахарная свекла
+день 235235
+от начала 5322</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Восход
+диск под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>восход
+дискование под рапс
+день 32523
+от начала 43532</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Восход
+чизел под оз пш
+день 25325
+от начала 25894
+Уборка пш под отц тр
+день 43
+от начала 12</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>восход
+чизлование под озимая пшеница
+день 25325
+от начала 25894
+уборка пшеница под отцовские травы травы
+день 43
+от начала 12</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+день 425346
+от начала 3633
+выравн силос
+день 324
+от начала 2523
+выкаш с св под отц тр
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+день 425346
+от начала 3633
+выравнивание силос
+день 324
+от начала 2523
+выкашивание с свекла под отцовские травы травы
+день 43633
+от начала 45636</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>АОР
+54.2.24
+Чизлевание под сах св
+день 32423
+от начала 25323</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>аор
+54.2.24
+чизлевание под сахарная свекла
+день 32423
+от начала 25323</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>13.3
+СП Коломейцево
+Выравн сах св под сою
+день 130
+от начала 232</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>13.3
+сп коломейцево
+выравнивание сахарная свекла под сою
+день 130
+от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>1.2
+Мир
+Пахота зяби под ячмень
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>1.2
+мир
+пахота зяби под ячмень
+день 4243
+от начала 4243</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>21.10
+Восход
+Пахота под кук/зерн
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+день 423
+от начала 4353</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+день 43875
+от начала 46384
+Пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>16.6
+восход
+чизлевание сои под сахарная свеклу
+день 43875
+от начала 46384
+пахота под сою
+день 42434
+от начала 42434</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>24.07
+ТСК
+Пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>24.07
+тск
+пахота под сою
+день 4353
+от начада 4224</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>1.12.25
+2-е диск под сою
+пахота под сах св
+день 2424
+от начала 35353</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>1.12.25
+второе дискование под сою
+пахота под сахарная свекла
+день 2424
+от начала 35353</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>6.8.23
+ТСК
+диск сах св
+9648 день
+2768 от начала</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>6.8.23
+тск
+дискование сахарная свекла
+9648 день
+2768 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Мир
+выравн сои под ячмень
+23532 день
+2325 от начала
+диск оз пш под сах св
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание сои под ячмень
+23532 день
+2325 от начала
+дискование озимая пшеница под сахарная свекла
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>АО Кропоткинское
+диск под рапс
+435 день
+43532 от начала</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+дискование под рапс
+435 день
+43532 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+чизел под оз пш
+25325 день
+23463 от начала
+Уборка пш под отц тр
+345 день
+1342 от начала</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+25325 день
+23463 от начала
+уборка пшеница под отцовские травы травы
+345 день
+1342 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+425346 день
+3633 от начала
+выравн силос
+324 день
+2523 от начала
+выкаш с св под отц тр
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+425346 день
+3633 от начала
+выравнивание силос
+324 день
+2523 от начала
+выкашивание с свекла под отцовские травы травы
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>54.2.24
+АОР
+Чизлевание под сах св
+32423 день
+25323 от начала</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>54.2.24
+аор
+чизлевание под сахарная свекла
+32423 день
+25323 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>13.3
+Восход
+Выравн сах св под сою
+130 день
+232 от начала
+Выкаш сах св под отц тр
+130 день
+232 от начала</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>13.3
+восход
+выравнивание сахарная свекла под сою
+130 день
+232 от начала
+выкашивание сахарная свекла под отцовские травы травы
+130 день
+232 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Мир
+1.2
+Пахота зяби под ячмень
+4243 день
+4243 от начала</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>мир
+1.2
+пахота зяби под ячмень
+4243 день
+4243 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>21.10
+Восход
+Пахота под кук/зерн
+423 день
+4353 от начала</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+423 день
+4353 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+43875 день
+46384 от начала
+Пахота под сою
+42434 день
+42434 от начала</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>16.6
+восход
+чизлевание сои под сахарная свеклу
+43875 день
+46384 от начала
+пахота под сою
+42434 день
+42434 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>24.09
+ТСК
+Пахота под сою
+4353 день
+4224 от начала</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>24.09
+тск
+пахота под сою
+4353 день
+4224 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>1.11.22
+2-е диск под ячмень
+пахота под сах св
+2424 день
+35353 от начала</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>1.11.22
+второе дискование под ячмень
+пахота под сахарная свекла
+2424 день
+35353 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>6.8.23
+ТСК
+диск сах св
+9648 день
+2768 от начала
+вал 313/232</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>6.8.23
+тск
+дискование сахарная свекла
+9648 день
+2768 от начала
+валовый день 313 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Мир
+выравн сои под ячмень
+23532 день
+2325 от начала
+вал 242/4242
+диск оз пш под сах св
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>мир
+выравнивание сои под ячмень
+23532 день
+2325 от начала
+валовый день 242 от начала 4242
+дискование озимая пшеница под сахарная свекла
+23532 день
+2523 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>АО Кропоткинское
+диск под рапс
+435 день
+43532 от начала
+вал 43443/4334</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>ао кропоткинское
+дискование под рапс
+435 день
+43532 от начала
+валовый день 43443 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+чизел под оз пш
+25325 день
+23463 от начала
+вал 4243/343
+Уборка пш под отц тр
+345 день
+1342 от начала
+вал 3535/343</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+чизлование под озимая пшеница
+25325 день
+23463 от начала
+валовый день 4243 от начала 343
+уборка пшеница под отцовские травы травы
+345 день
+1342 от начала
+валовый день 3535 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>Колхоз прогресс
+12.9.44
+уборка пш под отц тр
+425346 день
+3633 от начала
+вал 435/433
+выравн силос
+324 день
+2523 от начала
+вал 53546/3434
+выкаш с св под отц тр
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>колхоз прогресс
+12.9.44
+уборка пшеница под отцовские травы травы
+425346 день
+3633 от начала
+валовый день 435 от начала 433
+выравнивание силос
+324 день
+2523 от начала
+валовый день 53546 от начала 3434
+выкашивание с свекла под отцовские травы травы
+43633 день
+45636 от начала</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>54.2.24
+АОР
+Чизлевание под сах св
+32423 день
+25323 от начала
+вал 53535/3534</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>54.2.24
+аор
+чизлевание под сахарная свекла
+32423 день
+25323 от начала
+валовый день 53535 от начала 3534</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>13.3
+Восход
+Выравн сах св под сою
+130 день
+232 от начала
+Выкаш сах св под отц тр
+130 день
+232 от начала
+вал 54656/334</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>13.3
+восход
+выравнивание сахарная свекла под сою
+130 день
+232 от начала
+выкашивание сахарная свекла под отцовские травы травы
+130 день
+232 от начала
+валовый день 54656 от начала 334</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Мир
+1.2
+Пахота зяби под ячмень
+4243 день
+4243 от начала
+вал 435333</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>мир
+1.2
+пахота зяби под ячмень
+4243 день
+4243 от начала
+валовый 435333</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>21.10
+Восход
+Пахота под кук/зерн
+423 день
+4353 от начала
+вал 435345/5353434</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>21.10
+восход
+пахота под кукурузное зерно
+423 день
+4353 от начала
+валовый день 435345 от начала 5353434</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>16.6
+Восход
+Чизлевание сои под сах свеклу
+43875 день
+46384 от начала
+вал 43535/23234
+Пахота под сою
+42434 день
+42434 от начала
+вал 53545/4342</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>16.6
+восход
+чизлевание сои под сахарная свеклу
+43875 день
+46384 от начала
+валовый день 43535 от начала 23234
+пахота под сою
+42434 день
+42434 от начала
+валовый день 53545 от начала 4342</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>24.09
+ТСК
+Пахота под сою
+4353 день
+4224 от начала
+вал 4354/3434</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>24.09
+тск
+пахота под сою
+4353 день
+4224 от начала
+валовый день 4354 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>1.11.22
+2-е диск под ячмень
+пахота под сах св
+2424 день
+35353 от начала
+вал 54757/34534</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>1.11.22
+второе дискование под ячмень
+пахота под сахарная свекла
+2424 день
+35353 от начала
+валовый день 54757 от начала 34534</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>сев кук/силос
+попу 435/343
+отд 34 43/343
+вал 43534/34534
+Прокатывание посевов овса
+попу 3223/3232
+отд 24 43535/676243
+вал 4363/35344</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>посев кукурузный силос
+по пу день 435 от начала 343
+отделение 34 день 43 от начала 343
+валовый день 43534 от начала 34534
+прокатывание посевов овса
+по пу день 3223 от начала 3232
+отделение 24 день 43535 от начала 676243
+валовый день 4363 от начала 35344</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>14.8.25
+прокатывание посевов кукурозного зерна
+попу 32534/3434
+отд 83 43576/4542
+вал 435435/3534
+18.09.25 сев кук/силос
+попу 24767/357665
+отд 74 6885/5675
+вал 4334/433</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>14.8.25
+прокатывание посевов кукурозного зерна
+по пу день 32534 от начала 3434
+отделение 83 день 43576 от начала 4542
+валовый день 435435 от начала 3534
+18.09.25 посев кукурузный силос
+по пу день 24767 от начала 357665
+отделение 74 день 6885 от начала 5675
+валовый день 4334 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>СП Коломейцево
+18.09
+варванивание зяби под сах свеклу
+день 245
+от начала 25325
+вал 34534/433</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>сп коломейцево
+18.09
+варванивание зяби под сахарная свеклу
+день 245
+от начала 25325
+валовый день 34534 от начала 433</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Рассвет
+18.04.24
+культивация сах св 121/434/98%
+предпосевная культивация под сах св 23/232/75%
+вал 4334/4343</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>рассвет
+18.04.24
+культивация сахарная свекла день 121 от начала 434 98 
+предпосевная культивация под сахарная свекла день 23 от начала 232 75 
+валовый день 4334 от начала 4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>выравн силос
+попу 43535/345
+отд 5 42324/23
+вал 543/435
+выкаш отц форм
+попу 2432/324
+отд 4 43543/3434
+отд 4 353/343
+вал 34543/232</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>выравнивание силос
+по пу день 43535 от начала 345
+отделение 5 день 42324 от начала 23
+валовый день 543 от начала 435
+выкашивание отцовские травы формирование
+по пу день 2432 от начала 324
+отделение 4 день 43543 от начала 3434
+отделение 4 день 353 от начала 343
+валовый день 34543 от начала 232</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>5.4.21
+выравн под кук силос
+попу 43443/353
+отд 5 434/434
+отд 4 433/4534
+вал 34543/435
+попу 2342/234
+отд 78 433/3534
+вал 4543/334</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>5.4.21
+выравнивание под кукурузы силос
+по пу день 43443 от начала 353
+отделение 5 день 434 от начала 434
+отделение 4 день 433 от начала 4534
+валовый день 34543 от начала 435
+по пу день 2342 от начала 234
+отделение 78 день 433 от начала 3534
+валовый день 4543 от начала 334</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под оз пш
+попу 5353/3535
+отд 54 57/43433
+вал 4534/3453
+2-е диск сах/свекл
+попу 4353/5343
+отд 42 2443/4333
+вал 43534/4343</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>внесение минеральных удобрений под озимая пшеница
+по пу день 5353 от начала 3535
+отделение 54 день 57 от начала 43433
+валовый день 4534 от начала 3453
+второе дискование сахарная свекла
+по пу день 4353 от начала 5343
+отделение 42 день 2443 от начала 4333
+валовый день 43534 от начала 4343</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>сев сах свекл
+попу 546/454
+отд 7 76/668
+вал 4543/3434
+культивация сах свекл
+попу 43/8686
+отд 9 434/7676
+вал 435354/43534</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>посев сахарная свеклы
+по пу день 546 от начала 454
+отделение 7 день 76 от начала 668
+валовый день 4543 от начала 3434
+культивация сахарная свеклы
+по пу день 43 от начала 8686
+отделение 9 день 434 от начала 7676
+валовый день 435354 от начала 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>посев подсолнкчника
+попу 678/544
+отд 8 535/343
+отд 9 443/4343
+вал 435/3453</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>посев подсолнкчника
+по пу день 678 от начала 544
+отделение 8 день 535 от начала 343
+отделение 9 день 443 от начала 4343
+валовый день 435 от начала 3453</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>дисков сои под силос
+попу 4222/232
+отд 4 22/232
+пахота сои под оз пш
+попу 4242/242
+отд 3 232/2424
+вал 4534/3434</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>дискование сои под силос
+по пу день 4222 от начала 232
+отделение 4 день 22 от начала 232
+пахота сои под озимая пшеница
+по пу день 4242 от начала 242
+отделение 3 день 232 от начала 2424
+валовый день 4534 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>8.3 сев ячмень под озимый ячмень
+попу 4353/3435
+отд 81 243/2323
+отд 27 3242/232
+внесение гербицидов под оз пш
+попу 4242/2342
+отд 4 3244/3434
+отд 31 195/542
+вал 34543/3434</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>8.3 посев ячмень под озимый ячмень
+по пу день 4353 от начала 3435
+отделение 81 день 243 от начала 2323
+отделение 27 день 3242 от начала 232
+внесение гербицидов под озимая пшеница
+по пу день 4242 от начала 2342
+отделение 4 день 3244 от начала 3434
+отделение 31 день 195 от начала 542
+валовый день 34543 от начала 3434</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+попу 242/2323
+отд 23 323/232
+отд 24 232/3232
+вал 43534</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>23.03 пахота зяби под сою
+по пу день 242 от начала 2323
+отделение 23 день 323 от начала 232
+отделение 24 день 232 от начала 3232
+валовый 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>4.3
+посев с св под оз пш
+попу 3435/3433
+отд 33 344/343
+вал 435343
+пахота ячмень под кук силос
+попу 4774/4343
+отд 43 433/4343
+отд 7 33/343
+вал 3543
+внесение гербицидоа под оз пш
+попу 433/433
+отд 78 323/252
+отд 4 4334/433
+вал 43543</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>4.3
+посев с свекла под озимая пшеница
+по пу день 3435 от начала 3433
+отделение 33 день 344 от начала 343
+валовый 435343
+пахота ячмень под кукурузы силос
+по пу день 4774 от начала 4343
+отделение 43 день 433 от начала 4343
+отделение 7 день 33 от начала 343
+валовый 3543
+внесение гербицидоа под озимая пшеница
+по пу день 433 от начала 433
+отделение 78 день 323 от начала 252
+отделение 4 день 4334 от начала 433
+валовый 43543</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>внесение мин удобрений под силос
+попу 423564/9875
+отд 45 343/563
+вал 34534/343
+пахота под сах св
+попу 4354/35345
+отд 4355/2426
+вал 4534/3453
+внесен кас под кук силос
+попу 23223/25252
+отд 85 25/232
+вал 43534/343</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>внесение минеральные удобрений под силос
+по пу день 423564 от начала 9875
+отделение 45 день 343 от начала 563
+валовый день 34534 от начала 343
+пахота под сахарная свекла
+по пу день 4354 от начала 35345
+отделение день 4355 от начала 2426
+валовый день 4534 от начала 3453
+внесен кас под кукурузы силос
+по пу день 23223 от начала 25252
+отделение 85 день 25 от начала 232
+валовый день 43534 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Выравн под оз пш
+по пу 54/334
+Отд 13 14/544
+отд 15 12/121
+вал 54378/565
+диск пш под сах свекла
+по пу 653/232
+отд 22 12/442
+отд 23 43/434</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>выравнивание под озимая пшеница
+по пу день 54 от начала 334
+отделение 13 день 14 от начала 544
+отделение 15 день 12 от начала 121
+валовый день 54378 от начала 565
+дискование пшеница под сахарная свекла
+по пу день 653 от начала 232
+отделение 22 день 12 от начала 442
+отделение 23 день 43 от начала 434</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>17.9 сев оз пшеницы пу Юг - 3223/2532
+отд 42 254/235
+вал 43/23523</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>17.9 посев озимая пшеницы пу юг день 3223 от начала 2532
+отделение 42 день 254 от начала 235
+валовый день 43 от начала 23523</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>16.02 выравн под кук/силос пу Юг - 132/2423
+отд 18 4343/435
+вал 43543/43534</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>16.02 выравнивание под кукурузный силос пу юг день 132 от начала 2423
+отделение 18 день 4343 от начала 435
+валовый день 43543 от начала 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>19.08
+выравн кук силос
+попу 2534/5856
+отд 4 277/833
+вал 3436/786</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>19.08
+выравнивание кукурузы силос
+по пу день 2534 от начала 5856
+отделение 4 день 277 от начала 833
+валовый день 3436 от начала 786</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>15.8 Предп культ пу Север - 25345/3453
+отд 2 3252/235
+вал 36346/345
+Выравн под сою пу Центр - 252235/2354
+отд 8 2342/4334
+вал 346546/3453
+сев сах св пу Рассвет - 325235/43623
+отд 98 25345/3456
+вал 3634/343</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>15.8 предпосевная культура пу север день 25345 от начала 3453
+отделение 2 день 3252 от начала 235
+валовый день 36346 от начала 345
+выравнивание под сою пу центр день 252235 от начала 2354
+отделение 8 день 2342 от начала 4334
+валовый день 346546 от начала 3453
+посев сахарная свекла пу рассвет день 325235 от начала 43623
+отделение 98 день 25345 от начала 3456
+валовый день 3634 от начала 343</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Пахота под сах св
+По Пу 50/379
+Отд 12 36/240
+Отд 16 14/79
+вал 34436/3434
+Чизел под оз ячмень
+По Пу 60/588
+Отд 11 60/190
+вал 34534
+2-е диск под сах св
+По Пу 130/1393
+Отд 17 130/130
+вал 346346
+Диск кук силос
+По Пу 207/857
+Отд 11 66/199
+Отд 12 141/289
+вал 34634/3463
+Диск оз пшеницы 
+По Пу 57/8743
+Отд 17 57/1999
+вал 43435/3534
+Выкаш отц форм под/г
+Отд 12 2/24
+вал 3453/34534
+Прикат под оз ячмень
+По Пу 60/458
+Отд 11 60/60
+вал 353/4334</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>пахота под сахарная свекла
+по пу день 50 от начала 379
+отделение 12 день 36 от начала 240
+отделение 16 день 14 от начала 79
+валовый день 34436 от начала 3434
+чизлование под озимая ячмень
+по пу день 60 от начала 588
+отделение 11 день 60 от начала 190
+валовый 34534
+второе дискование под сахарная свекла
+по пу день 130 от начала 1393
+отделение 17 день 130 от начала 130
+валовый 346346
+дискование кукурузы силос
+по пу день 207 от начала 857
+отделение 11 день 66 от начала 199
+отделение 12 день 141 от начала 289
+валовый день 34634 от начала 3463
+дискование озимая пшеницы 
+по пу день 57 от начала 8743
+отделение 17 день 57 от начала 1999
+валовый день 43435 от начала 3534
+выкашивание отцовские травы формирование подготовка грунта
+отделение 12 день 2 от начала 24
+валовый день 3453 от начала 34534
+прикат под озимая ячмень
+по пу день 60 от начала 458
+отделение 11 день 60 от начала 60
+валовый день 353 от начала 4334</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>ПУ «ЮГ» 2.03
+Выравнивание зяби под сах св
+По ПУ 105/2527
+Отделение 11 30/674
+Отделение 17 75/588
+вал 34345/34534
+Выравнивание зяби под кук/зерно 
+По ПУ 40/571
+Отделение 12 40/412
+вал 436436/987
+Выравнивание зяби по кук/силос
+По ПУ 62/232
+Отделение 11 23/23
+Отделение 17 39/39
+вал 3443/3434
+Выравнивание зяби под сою 
+По ПУ 72/354
+Отделение 16 72/289
+вал 34534
+Сев овса 
+По ПУ 5/5
+Отделение 11 5/5
+вал 3563623
+Прокатывание посевов овса 
+По ПУ 5/5
+Отделение 5/5
+вал 36268</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>пу юг 2.03
+выравнивание зяби под сахарная свекла
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
+валовый день 34345 от начала 34534
+выравнивание зяби под кукурузное зерно 
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
+валовый день 436436 от начала 987
+выравнивание зяби по кукурузный силос
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
+валовый день 3443 от начала 3434
+выравнивание зяби под сою 
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
+валовый 34534
+посев овса 
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
+валовый 3563623
+прокатывание посевов овса 
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+валовый 36268</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>Вырав под сою
+ПоПу 24/1481
+Отд 11 24/712
+вал 435435/3453
+Предп культ под сах св
+ПоПу 369/2656
+Отд 11 156/639
+Отд 12 48/795
+Отд 17 163/751
+вал 34646/343
+Сев сах св
+ПоПу 355/2287
+Отд 11 80/481
+Отд 12 133/659
+Отд 17 142/678
+вал 43634/33</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 24 от начала 1481
+отделение 11 день 24 от начала 712
+валовый день 435435 от начала 3453
+предпосевная культура под сахарная свекла
+по пу день 369 от начала 2656
+отделение 11 день 156 от начала 639
+отделение 12 день 48 от начала 795
+отделение 17 день 163 от начала 751
+валовый день 34646 от начала 343
+посев сахарная свекла
+по пу день 355 от начала 2287
+отделение 11 день 80 от начала 481
+отделение 12 день 133 от начала 659
+отделение 17 день 142 от начала 678
+валовый день 43634 от начала 33</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Выравн зяби под сою
+ПоПу 18/1515
+Отд 11 18/746
+вал 3463/8865
+Предп культ под сах св
+ПоПу 175//2881
+Отд 11 45/734
+Отд 17 130/881
+вал 3864/65645
+Сев сах св
+ПоПу 333/2711
+Отд 11 113/615
+Отд 12 91/795
+Отд 17 129/832
+вал 63497/9766
+Предп культ под подсо
+Отд 16 90/90
+вал 346989/3453</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>выравнивание зяби под сою
+по пу день 18 от начала 1515
+отделение 11 день 18 от начала 746
+валовый день 3463 от начала 8865
+предпосевная культура под сахарная свекла
+по пу 175 2881
+отделение 11 день 45 от начала 734
+отделение 17 день 130 от начала 881
+валовый день 3864 от начала 65645
+посев сахарная свекла
+по пу день 333 от начала 2711
+отделение 11 день 113 от начала 615
+отделение 12 день 91 от начала 795
+отделение 17 день 129 от начала 832
+валовый день 63497 от начала 9766
+предпосевная культура под подсо
+отделение 16 день 90 от начала 90
+валовый день 346989 от начала 3453</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Выравн под сою
+ПоПу 53/1441
+Отд 11 23/672
+Отд 12 30/251
+вал 436/6334
+Выравн под кук силос
+ПоПу 6/871
+Отд 11 6/401
+вал 4534/433
+Предп культ под сах св
+ПоПу 22/406
+Отд 11 20/67
+Отд 12 2/106
+вал 543/3433
+Сев сах св
+ПоПу 15/122
+Отд 11 5/5
+Отд 16 10/88</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 53 от начала 1441
+отделение 11 день 23 от начала 672
+отделение 12 день 30 от начала 251
+валовый день 436 от начала 6334
+выравнивание под кукурузы силос
+по пу день 6 от начала 871
+отделение 11 день 6 от начала 401
+валовый день 4534 от начала 433
+предпосевная культура под сахарная свекла
+по пу день 22 от начала 406
+отделение 11 день 20 от начала 67
+отделение 12 день 2 от начала 106
+валовый день 543 от начала 3433
+посев сахарная свекла
+по пу день 15 от начала 122
+отделение 11 день 5 от начала 5
+отделение 16 день 10 от начала 88</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Выравн под сою
+ПоПу 118/1388
+Отд 11 51/649
+Отд 12 67/221
+вал 34534/767
+Выравн под кук зерно
+ПоПу 25/906
+Отд 12 25/437
+вал 34634/34534
+Предп культ под сах св
+ПоПу 265/384
+Отд 11 47/47
+Отд 12 65/104
+Отд 16 103/183
+Отд 17 50/50
+вал 4363/34534
+Сев сах свеклы
+ПоПу 107/107
+Отд 12 29/29
+Отд 16 78/78
+вал 36/8778</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>выравнивание под сою
+по пу день 118 от начала 1388
+отделение 11 день 51 от начала 649
+отделение 12 день 67 от начала 221
+валовый день 34534 от начала 767
+выравнивание под кукурузы зерно
+по пу день 25 от начала 906
+отделение 12 день 25 от начала 437
+валовый день 34634 от начала 34534
+предпосевная культура под сахарная свекла
+по пу день 265 от начала 384
+отделение 11 день 47 от начала 47
+отделение 12 день 65 от начала 104
+отделение 16 день 103 от начала 183
+отделение 17 день 50 от начала 50
+валовый день 4363 от начала 34534
+посев сахарная свеклы
+по пу день 107 от начала 107
+отделение 12 день 29 от начала 29
+отделение 16 день 78 от начала 78
+валовый день 36 от начала 8778</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Пахота под сою
+ПоПу 14/1664
+Отд 11 14/897
+вал 36/3453
+Выравн под сою
+ПоПу 164/1270
+Отд 11 95/598
+Отд 12 35/154
+Отд 17 34/117
+вал 3643/2324
+Предп культ под сах/св
+ПоПу 119/119
+Отд 12 39/39
+Отд 16 80/80
+вал 435634/4364</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>пахота под сою
+по пу день 14 от начала 1664
+отделение 11 день 14 от начала 897
+валовый день 36 от начала 3453
+выравнивание под сою
+по пу день 164 от начала 1270
+отделение 11 день 95 от начала 598
+отделение 12 день 35 от начала 154
+отделение 17 день 34 от начала 117
+валовый день 3643 от начала 2324
+предпосевная культура под сахарная свекла
+по пу день 119 от начала 119
+отделение 12 день 39 от начала 39
+отделение 16 день 80 от начала 80
+валовый день 435634 от начала 4364</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>ПУ «ЮГ» 2.03
+Выравнивание зяби под сах св
+По ПУ 105/2527
+Отделение 11 30/674
+Отделение 17 75/588
+вал 34636/433434
+Выравнивание зяби под кук/зерно 
+По ПУ 40/571
+Отделение 12 40/412
+вал 43634/34534
+Выравнивание зяби по кук/силос
+По ПУ 62/232
+Отделение 11 23/23
+Отделение 17 39/39
+вал 4353453
+Выравнивание зяби под сою 
+По ПУ 72/354
+Отделение 16 72/289
+вал 43534
+Сев овса 
+По ПУ 5/5
+Отделение 11 5/5
+вал 34634653
+Прокатывание посевов овса 
+По ПУ 5/5
+Отделение 5/5
+вал 43534</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>пу юг 2.03
+выравнивание зяби под сахарная свекла
+по пу день 105 от начала 2527
+отделение 11 день 30 от начала 674
+отделение 17 день 75 от начала 588
+валовый день 34636 от начала 433434
+выравнивание зяби под кукурузное зерно 
+по пу день 40 от начала 571
+отделение 12 день 40 от начала 412
+валовый день 43634 от начала 34534
+выравнивание зяби по кукурузный силос
+по пу день 62 от начала 232
+отделение 11 день 23 от начала 23
+отделение 17 день 39 от начала 39
+валовый 4353453
+выравнивание зяби под сою 
+по пу день 72 от начала 354
+отделение 16 день 72 от начала 289
+валовый 43534
+посев овса 
+по пу день 5 от начала 5
+отделение 11 день 5 от начала 5
+валовый 34634653
+прокатывание посевов овса 
+по пу день 5 от начала 5
+отделение день 5 от начала 5
+валовый 43534</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Полевые работы АОР, 14.11.2024.
+Пахота под кукурузу на зерно:
+День - 26 га 
+От начала - 3931 га (96%)
+Остаток - 166 га 
+Пахота под сою:
+День - 295 га 
+От начала - 6804 га (79%)
+Остаток- 1774 га </t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t xml:space="preserve">полевые работы аор, 14.11.2024.
+пахота под кукурузу на зерно 
+день 26 
+от начала 3931 96 
+остаток 166 
+пахота под сою 
+день 295 
+от начала 6804 79 
+остаток 1774 </t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Пахота под кукурузу на силос:
+День - 128 га 
+От начала - 1881 га(61%)
+Остаток - 1205 га 
+Чизелевание под сою:
+День -73 га 
+От начала - 841 га</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t xml:space="preserve">пахота под кукурузу на силос 
+день 128 
+от начала 1881 61 
+остаток 1205 
+чизелевание под сою 
+день 73 
+от начала 841 </t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Выравнивание зяби под сахарную свеклу:
+День - 384 га 
+От начала-7882 га (70%)
+Остаток - 3368 га
+Выравнивание зяби под подсолнечник:
+День - 50 га 
+От начала - 1260 га (30%)
+Остаток - 2923 га </t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">выравнивание зяби под сахарную свеклу 
+день 384 
+от начала 7882 70 
+остаток 3368 
+выравнивание зяби под подсолнечник 
+день 50 
+от начала 1260 30 
+остаток 2923 </t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>2 след выравнивания зяби под сах.свеклу:
+День- 44 га 
+От начала- 469 га (4%)
+Остаток - 10781 га 
+Затравка мышевидных грызунов по мн.травам:
+День - 53 га 
+От начала -1018 га (58%)
+Остаток - 471 га</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2 следующий выравнивания зяби под сах.свеклу 
+день 44 
+от начала 469 4 
+остаток 10781 
+затравка мышевидных грызунов по мн.травам 
+день 53 
+от начала 1018 58 
+остаток 471 </t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Затравка мышевидных грызунов по озимому ячменю:
+День - 186 га 
+От начала- 186 га 
+Остаток - 2086 га</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t xml:space="preserve">затравка мышевидных грызунов по озимому ячменю 
+день 186 
+от начала 186 
+остаток 2086 </t>
         </is>
       </c>
     </row>
